--- a/New folder/RV32I ISA - CSD.xlsx
+++ b/New folder/RV32I ISA - CSD.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f605f31ec790b71c/Documents/GitHub/Single-Cycle-RISC-V-processor/New folder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="8_{57C241D1-24B4-4542-83A4-5CDF0A47D1CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E4C1103A-E972-4984-BF99-F74B1A932E03}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="8_{57C241D1-24B4-4542-83A4-5CDF0A47D1CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{67707284-9725-42E0-B99F-1A1635C5E523}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="771" activeTab="2" xr2:uid="{97632C4D-50AD-4DD4-A628-A9BB3316DD8B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="771" xr2:uid="{97632C4D-50AD-4DD4-A628-A9BB3316DD8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Instruction Set" sheetId="1" r:id="rId1"/>
@@ -4175,207 +4175,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="37" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4467,6 +4266,207 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="40" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
@@ -4918,16 +4918,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>18111</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>287052</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>82551</xdr:rowOff>
+      <xdr:rowOff>28763</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>581192</xdr:colOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>240533</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
+      <xdr:rowOff>104962</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4956,8 +4956,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="18331511" y="2870201"/>
-          <a:ext cx="6049482" cy="4311649"/>
+          <a:off x="14307852" y="2762998"/>
+          <a:ext cx="6049481" cy="4199964"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5241,6 +5241,10 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5542,7 +5546,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F535B3E4-1E90-4816-A5D5-F70F3D681F57}">
   <dimension ref="A1:AB123"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="O14" zoomScale="109" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
@@ -5615,7 +5619,7 @@
       <c r="A2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="271"/>
+      <c r="B2" s="308"/>
       <c r="C2" s="5" t="s">
         <v>16</v>
       </c>
@@ -5634,28 +5638,28 @@
       <c r="L2" s="6"/>
       <c r="M2" s="6"/>
       <c r="N2" s="6"/>
-      <c r="O2" s="272" t="s">
+      <c r="O2" s="309" t="s">
         <v>19</v>
       </c>
-      <c r="R2" s="270" t="s">
+      <c r="R2" s="307" t="s">
         <v>20</v>
       </c>
-      <c r="S2" s="270"/>
-      <c r="T2" s="270"/>
-      <c r="U2" s="270"/>
-      <c r="V2" s="270"/>
-      <c r="W2" s="270"/>
-      <c r="X2" s="270"/>
-      <c r="Y2" s="270"/>
-      <c r="Z2" s="270"/>
-      <c r="AA2" s="270"/>
+      <c r="S2" s="307"/>
+      <c r="T2" s="307"/>
+      <c r="U2" s="307"/>
+      <c r="V2" s="307"/>
+      <c r="W2" s="307"/>
+      <c r="X2" s="307"/>
+      <c r="Y2" s="307"/>
+      <c r="Z2" s="307"/>
+      <c r="AA2" s="307"/>
       <c r="AB2" s="1"/>
     </row>
     <row r="3" spans="1:28">
       <c r="A3" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="271"/>
+      <c r="B3" s="308"/>
       <c r="C3" s="5" t="s">
         <v>16</v>
       </c>
@@ -5674,13 +5678,13 @@
       <c r="L3" s="6"/>
       <c r="M3" s="6"/>
       <c r="N3" s="6"/>
-      <c r="O3" s="272"/>
+      <c r="O3" s="309"/>
     </row>
     <row r="4" spans="1:28">
       <c r="A4" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="271"/>
+      <c r="B4" s="308"/>
       <c r="C4" s="5" t="s">
         <v>25</v>
       </c>
@@ -5699,13 +5703,13 @@
       <c r="L4" s="6"/>
       <c r="M4" s="6"/>
       <c r="N4" s="6"/>
-      <c r="O4" s="272"/>
+      <c r="O4" s="309"/>
     </row>
     <row r="5" spans="1:28">
       <c r="A5" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="271"/>
+      <c r="B5" s="308"/>
       <c r="C5" s="9" t="s">
         <v>29</v>
       </c>
@@ -5726,7 +5730,7 @@
       <c r="L5" s="10"/>
       <c r="M5" s="10"/>
       <c r="N5" s="10"/>
-      <c r="O5" s="273" t="s">
+      <c r="O5" s="310" t="s">
         <v>33</v>
       </c>
     </row>
@@ -5734,7 +5738,7 @@
       <c r="A6" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="271"/>
+      <c r="B6" s="308"/>
       <c r="C6" s="8" t="s">
         <v>35</v>
       </c>
@@ -5755,13 +5759,13 @@
       <c r="L6" s="11"/>
       <c r="M6" s="11"/>
       <c r="N6" s="11"/>
-      <c r="O6" s="273"/>
+      <c r="O6" s="310"/>
     </row>
     <row r="7" spans="1:28">
       <c r="A7" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="271"/>
+      <c r="B7" s="308"/>
       <c r="C7" s="8" t="s">
         <v>35</v>
       </c>
@@ -5782,13 +5786,13 @@
       <c r="L7" s="11"/>
       <c r="M7" s="11"/>
       <c r="N7" s="11"/>
-      <c r="O7" s="273"/>
+      <c r="O7" s="310"/>
     </row>
     <row r="8" spans="1:28">
       <c r="A8" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B8" s="271"/>
+      <c r="B8" s="308"/>
       <c r="C8" s="8" t="s">
         <v>35</v>
       </c>
@@ -5809,13 +5813,13 @@
       <c r="L8" s="11"/>
       <c r="M8" s="11"/>
       <c r="N8" s="11"/>
-      <c r="O8" s="273"/>
+      <c r="O8" s="310"/>
     </row>
     <row r="9" spans="1:28">
       <c r="A9" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="271"/>
+      <c r="B9" s="308"/>
       <c r="C9" s="8" t="s">
         <v>35</v>
       </c>
@@ -5836,13 +5840,13 @@
       <c r="L9" s="11"/>
       <c r="M9" s="11"/>
       <c r="N9" s="11"/>
-      <c r="O9" s="273"/>
+      <c r="O9" s="310"/>
     </row>
     <row r="10" spans="1:28">
       <c r="A10" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="B10" s="271"/>
+      <c r="B10" s="308"/>
       <c r="C10" s="8" t="s">
         <v>35</v>
       </c>
@@ -5863,13 +5867,13 @@
       <c r="L10" s="11"/>
       <c r="M10" s="11"/>
       <c r="N10" s="11"/>
-      <c r="O10" s="273"/>
+      <c r="O10" s="310"/>
     </row>
     <row r="11" spans="1:28">
       <c r="A11" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="B11" s="271"/>
+      <c r="B11" s="308"/>
       <c r="C11" s="8" t="s">
         <v>35</v>
       </c>
@@ -5890,13 +5894,13 @@
       <c r="L11" s="11"/>
       <c r="M11" s="11"/>
       <c r="N11" s="11"/>
-      <c r="O11" s="273"/>
+      <c r="O11" s="310"/>
     </row>
     <row r="12" spans="1:28">
       <c r="A12" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B12" s="271"/>
+      <c r="B12" s="308"/>
       <c r="C12" s="9" t="s">
         <v>29</v>
       </c>
@@ -5917,13 +5921,13 @@
       <c r="L12" s="10"/>
       <c r="M12" s="10"/>
       <c r="N12" s="10"/>
-      <c r="O12" s="273"/>
+      <c r="O12" s="310"/>
     </row>
     <row r="13" spans="1:28" ht="15.6">
       <c r="A13" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="B13" s="271"/>
+      <c r="B13" s="308"/>
       <c r="C13" s="9" t="s">
         <v>29</v>
       </c>
@@ -5944,26 +5948,26 @@
       <c r="L13" s="10"/>
       <c r="M13" s="10"/>
       <c r="N13" s="10"/>
-      <c r="O13" s="273"/>
-      <c r="R13" s="270" t="s">
+      <c r="O13" s="310"/>
+      <c r="R13" s="307" t="s">
         <v>58</v>
       </c>
-      <c r="S13" s="270"/>
-      <c r="T13" s="270"/>
-      <c r="U13" s="270"/>
-      <c r="V13" s="270"/>
-      <c r="W13" s="270"/>
-      <c r="X13" s="270"/>
-      <c r="Y13" s="270"/>
-      <c r="Z13" s="270"/>
-      <c r="AA13" s="270"/>
+      <c r="S13" s="307"/>
+      <c r="T13" s="307"/>
+      <c r="U13" s="307"/>
+      <c r="V13" s="307"/>
+      <c r="W13" s="307"/>
+      <c r="X13" s="307"/>
+      <c r="Y13" s="307"/>
+      <c r="Z13" s="307"/>
+      <c r="AA13" s="307"/>
       <c r="AB13" s="15"/>
     </row>
     <row r="14" spans="1:28">
       <c r="A14" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="B14" s="271"/>
+      <c r="B14" s="308"/>
       <c r="C14" s="9" t="s">
         <v>29</v>
       </c>
@@ -5984,13 +5988,13 @@
       <c r="L14" s="10"/>
       <c r="M14" s="10"/>
       <c r="N14" s="10"/>
-      <c r="O14" s="273"/>
+      <c r="O14" s="310"/>
     </row>
     <row r="15" spans="1:28">
       <c r="A15" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="B15" s="271"/>
+      <c r="B15" s="308"/>
       <c r="C15" s="9" t="s">
         <v>29</v>
       </c>
@@ -6011,13 +6015,13 @@
       <c r="L15" s="10"/>
       <c r="M15" s="10"/>
       <c r="N15" s="10"/>
-      <c r="O15" s="273"/>
+      <c r="O15" s="310"/>
     </row>
     <row r="16" spans="1:28">
       <c r="A16" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="B16" s="271"/>
+      <c r="B16" s="308"/>
       <c r="C16" s="9" t="s">
         <v>29</v>
       </c>
@@ -6038,13 +6042,13 @@
       <c r="L16" s="10"/>
       <c r="M16" s="10"/>
       <c r="N16" s="10"/>
-      <c r="O16" s="273"/>
+      <c r="O16" s="310"/>
     </row>
     <row r="17" spans="1:15">
       <c r="A17" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="B17" s="271"/>
+      <c r="B17" s="308"/>
       <c r="C17" s="7" t="s">
         <v>67</v>
       </c>
@@ -6065,13 +6069,13 @@
       <c r="L17" s="12"/>
       <c r="M17" s="12"/>
       <c r="N17" s="12"/>
-      <c r="O17" s="273"/>
+      <c r="O17" s="310"/>
     </row>
     <row r="18" spans="1:15">
       <c r="A18" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="B18" s="271"/>
+      <c r="B18" s="308"/>
       <c r="C18" s="7" t="s">
         <v>67</v>
       </c>
@@ -6092,13 +6096,13 @@
       <c r="L18" s="12"/>
       <c r="M18" s="12"/>
       <c r="N18" s="12"/>
-      <c r="O18" s="273"/>
+      <c r="O18" s="310"/>
     </row>
     <row r="19" spans="1:15">
       <c r="A19" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="B19" s="271"/>
+      <c r="B19" s="308"/>
       <c r="C19" s="7" t="s">
         <v>67</v>
       </c>
@@ -6119,13 +6123,13 @@
       <c r="L19" s="12"/>
       <c r="M19" s="12"/>
       <c r="N19" s="12"/>
-      <c r="O19" s="273"/>
+      <c r="O19" s="310"/>
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="B20" s="271"/>
+      <c r="B20" s="308"/>
       <c r="C20" s="9" t="s">
         <v>29</v>
       </c>
@@ -6146,13 +6150,13 @@
       <c r="L20" s="10"/>
       <c r="M20" s="10"/>
       <c r="N20" s="10"/>
-      <c r="O20" s="273"/>
+      <c r="O20" s="310"/>
     </row>
     <row r="21" spans="1:15">
       <c r="A21" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="B21" s="271"/>
+      <c r="B21" s="308"/>
       <c r="C21" s="9" t="s">
         <v>29</v>
       </c>
@@ -6173,13 +6177,13 @@
       <c r="L21" s="10"/>
       <c r="M21" s="10"/>
       <c r="N21" s="10"/>
-      <c r="O21" s="273"/>
+      <c r="O21" s="310"/>
     </row>
     <row r="22" spans="1:15">
       <c r="A22" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="B22" s="271"/>
+      <c r="B22" s="308"/>
       <c r="C22" s="9" t="s">
         <v>29</v>
       </c>
@@ -6200,13 +6204,13 @@
       <c r="L22" s="10"/>
       <c r="M22" s="10"/>
       <c r="N22" s="10"/>
-      <c r="O22" s="273"/>
+      <c r="O22" s="310"/>
     </row>
     <row r="23" spans="1:15">
       <c r="A23" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="B23" s="271"/>
+      <c r="B23" s="308"/>
       <c r="C23" s="9" t="s">
         <v>29</v>
       </c>
@@ -6227,13 +6231,13 @@
       <c r="L23" s="10"/>
       <c r="M23" s="10"/>
       <c r="N23" s="10"/>
-      <c r="O23" s="273"/>
+      <c r="O23" s="310"/>
     </row>
     <row r="24" spans="1:15">
       <c r="A24" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="B24" s="271"/>
+      <c r="B24" s="308"/>
       <c r="C24" s="9" t="s">
         <v>29</v>
       </c>
@@ -6254,13 +6258,13 @@
       <c r="L24" s="10"/>
       <c r="M24" s="10"/>
       <c r="N24" s="10"/>
-      <c r="O24" s="273"/>
+      <c r="O24" s="310"/>
     </row>
     <row r="25" spans="1:15">
       <c r="A25" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="B25" s="271"/>
+      <c r="B25" s="308"/>
       <c r="C25" s="9" t="s">
         <v>29</v>
       </c>
@@ -6281,13 +6285,13 @@
       <c r="L25" s="10"/>
       <c r="M25" s="10"/>
       <c r="N25" s="10"/>
-      <c r="O25" s="273"/>
+      <c r="O25" s="310"/>
     </row>
     <row r="26" spans="1:15">
       <c r="A26" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="B26" s="271"/>
+      <c r="B26" s="308"/>
       <c r="C26" s="9" t="s">
         <v>29</v>
       </c>
@@ -6308,13 +6312,13 @@
       <c r="L26" s="10"/>
       <c r="M26" s="10"/>
       <c r="N26" s="10"/>
-      <c r="O26" s="273"/>
+      <c r="O26" s="310"/>
     </row>
     <row r="27" spans="1:15">
       <c r="A27" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="B27" s="271"/>
+      <c r="B27" s="308"/>
       <c r="C27" s="9" t="s">
         <v>29</v>
       </c>
@@ -6335,13 +6339,13 @@
       <c r="L27" s="10"/>
       <c r="M27" s="10"/>
       <c r="N27" s="10"/>
-      <c r="O27" s="273"/>
+      <c r="O27" s="310"/>
     </row>
     <row r="28" spans="1:15">
       <c r="A28" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="B28" s="271"/>
+      <c r="B28" s="308"/>
       <c r="C28" s="9" t="s">
         <v>29</v>
       </c>
@@ -6362,13 +6366,13 @@
       <c r="L28" s="10"/>
       <c r="M28" s="10"/>
       <c r="N28" s="10"/>
-      <c r="O28" s="273"/>
+      <c r="O28" s="310"/>
     </row>
     <row r="29" spans="1:15">
       <c r="A29" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="B29" s="271"/>
+      <c r="B29" s="308"/>
       <c r="C29" s="13" t="s">
         <v>95</v>
       </c>
@@ -6389,13 +6393,13 @@
       <c r="L29" s="14"/>
       <c r="M29" s="14"/>
       <c r="N29" s="14"/>
-      <c r="O29" s="273"/>
+      <c r="O29" s="310"/>
     </row>
     <row r="30" spans="1:15">
       <c r="A30" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="B30" s="271"/>
+      <c r="B30" s="308"/>
       <c r="C30" s="13" t="s">
         <v>95</v>
       </c>
@@ -6416,13 +6420,13 @@
       <c r="L30" s="14"/>
       <c r="M30" s="14"/>
       <c r="N30" s="14"/>
-      <c r="O30" s="273"/>
+      <c r="O30" s="310"/>
     </row>
     <row r="31" spans="1:15">
       <c r="A31" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="B31" s="271"/>
+      <c r="B31" s="308"/>
       <c r="C31" s="13" t="s">
         <v>95</v>
       </c>
@@ -6443,13 +6447,13 @@
       <c r="L31" s="14"/>
       <c r="M31" s="14"/>
       <c r="N31" s="14"/>
-      <c r="O31" s="273"/>
+      <c r="O31" s="310"/>
     </row>
     <row r="32" spans="1:15">
       <c r="A32" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="B32" s="271"/>
+      <c r="B32" s="308"/>
       <c r="C32" s="13" t="s">
         <v>95</v>
       </c>
@@ -6470,13 +6474,13 @@
       <c r="L32" s="14"/>
       <c r="M32" s="14"/>
       <c r="N32" s="14"/>
-      <c r="O32" s="273"/>
+      <c r="O32" s="310"/>
     </row>
     <row r="33" spans="1:15">
       <c r="A33" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="B33" s="271"/>
+      <c r="B33" s="308"/>
       <c r="C33" s="13" t="s">
         <v>95</v>
       </c>
@@ -6497,13 +6501,13 @@
       <c r="L33" s="14"/>
       <c r="M33" s="14"/>
       <c r="N33" s="14"/>
-      <c r="O33" s="273"/>
+      <c r="O33" s="310"/>
     </row>
     <row r="34" spans="1:15">
       <c r="A34" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="B34" s="271"/>
+      <c r="B34" s="308"/>
       <c r="C34" s="13" t="s">
         <v>95</v>
       </c>
@@ -6524,13 +6528,13 @@
       <c r="L34" s="14"/>
       <c r="M34" s="14"/>
       <c r="N34" s="14"/>
-      <c r="O34" s="273"/>
+      <c r="O34" s="310"/>
     </row>
     <row r="35" spans="1:15">
       <c r="A35" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="B35" s="271"/>
+      <c r="B35" s="308"/>
       <c r="C35" s="13" t="s">
         <v>95</v>
       </c>
@@ -6551,13 +6555,13 @@
       <c r="L35" s="14"/>
       <c r="M35" s="14"/>
       <c r="N35" s="14"/>
-      <c r="O35" s="273"/>
+      <c r="O35" s="310"/>
     </row>
     <row r="36" spans="1:15">
       <c r="A36" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="B36" s="271"/>
+      <c r="B36" s="308"/>
       <c r="C36" s="13" t="s">
         <v>95</v>
       </c>
@@ -6578,13 +6582,13 @@
       <c r="L36" s="14"/>
       <c r="M36" s="14"/>
       <c r="N36" s="14"/>
-      <c r="O36" s="273"/>
+      <c r="O36" s="310"/>
     </row>
     <row r="37" spans="1:15">
       <c r="A37" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="B37" s="271"/>
+      <c r="B37" s="308"/>
       <c r="C37" s="13" t="s">
         <v>95</v>
       </c>
@@ -6605,13 +6609,13 @@
       <c r="L37" s="14"/>
       <c r="M37" s="14"/>
       <c r="N37" s="14"/>
-      <c r="O37" s="273"/>
+      <c r="O37" s="310"/>
     </row>
     <row r="38" spans="1:15">
       <c r="A38" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="B38" s="271"/>
+      <c r="B38" s="308"/>
       <c r="C38" s="13" t="s">
         <v>95</v>
       </c>
@@ -6632,13 +6636,13 @@
       <c r="L38" s="14"/>
       <c r="M38" s="14"/>
       <c r="N38" s="14"/>
-      <c r="O38" s="273"/>
+      <c r="O38" s="310"/>
     </row>
     <row r="39" spans="1:15">
       <c r="A39" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="B39" s="271"/>
+      <c r="B39" s="308"/>
       <c r="C39" s="9" t="s">
         <v>29</v>
       </c>
@@ -6659,13 +6663,13 @@
       <c r="L39" s="10"/>
       <c r="M39" s="10"/>
       <c r="N39" s="10"/>
-      <c r="O39" s="273"/>
+      <c r="O39" s="310"/>
     </row>
     <row r="40" spans="1:15">
       <c r="A40" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="B40" s="271"/>
+      <c r="B40" s="308"/>
       <c r="C40" s="9" t="s">
         <v>29</v>
       </c>
@@ -6686,13 +6690,13 @@
       <c r="L40" s="10"/>
       <c r="M40" s="10"/>
       <c r="N40" s="10"/>
-      <c r="O40" s="273"/>
+      <c r="O40" s="310"/>
     </row>
     <row r="41" spans="1:15">
       <c r="A41" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="B41" s="271"/>
+      <c r="B41" s="308"/>
       <c r="C41" s="9" t="s">
         <v>29</v>
       </c>
@@ -6713,13 +6717,13 @@
       <c r="L41" s="10"/>
       <c r="M41" s="10"/>
       <c r="N41" s="10"/>
-      <c r="O41" s="273"/>
+      <c r="O41" s="310"/>
     </row>
     <row r="42" spans="1:15">
       <c r="A42" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="B42" s="271"/>
+      <c r="B42" s="308"/>
       <c r="C42" s="9" t="s">
         <v>29</v>
       </c>
@@ -6740,13 +6744,13 @@
       <c r="L42" s="10"/>
       <c r="M42" s="10"/>
       <c r="N42" s="10"/>
-      <c r="O42" s="273"/>
+      <c r="O42" s="310"/>
     </row>
     <row r="43" spans="1:15">
       <c r="A43" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="B43" s="271"/>
+      <c r="B43" s="308"/>
       <c r="C43" s="3" t="s">
         <v>29</v>
       </c>
@@ -6767,7 +6771,7 @@
       <c r="L43" s="4"/>
       <c r="M43" s="4"/>
       <c r="N43" s="4"/>
-      <c r="O43" s="274" t="s">
+      <c r="O43" s="311" t="s">
         <v>128</v>
       </c>
     </row>
@@ -6775,7 +6779,7 @@
       <c r="A44" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="B44" s="271"/>
+      <c r="B44" s="308"/>
       <c r="C44" s="3" t="s">
         <v>29</v>
       </c>
@@ -6796,13 +6800,13 @@
       <c r="L44" s="4"/>
       <c r="M44" s="4"/>
       <c r="N44" s="4"/>
-      <c r="O44" s="274"/>
+      <c r="O44" s="311"/>
     </row>
     <row r="45" spans="1:15">
       <c r="A45" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="B45" s="271"/>
+      <c r="B45" s="308"/>
       <c r="C45" s="3" t="s">
         <v>29</v>
       </c>
@@ -6823,13 +6827,13 @@
       <c r="L45" s="4"/>
       <c r="M45" s="4"/>
       <c r="N45" s="4"/>
-      <c r="O45" s="274"/>
+      <c r="O45" s="311"/>
     </row>
     <row r="46" spans="1:15">
       <c r="A46" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="B46" s="271"/>
+      <c r="B46" s="308"/>
       <c r="C46" s="3" t="s">
         <v>29</v>
       </c>
@@ -6850,13 +6854,13 @@
       <c r="L46" s="4"/>
       <c r="M46" s="4"/>
       <c r="N46" s="4"/>
-      <c r="O46" s="274"/>
+      <c r="O46" s="311"/>
     </row>
     <row r="47" spans="1:15">
       <c r="A47" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="B47" s="271"/>
+      <c r="B47" s="308"/>
       <c r="C47" s="3" t="s">
         <v>29</v>
       </c>
@@ -6877,13 +6881,13 @@
       <c r="L47" s="4"/>
       <c r="M47" s="4"/>
       <c r="N47" s="4"/>
-      <c r="O47" s="274"/>
+      <c r="O47" s="311"/>
     </row>
     <row r="48" spans="1:15">
       <c r="A48" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="B48" s="271"/>
+      <c r="B48" s="308"/>
       <c r="C48" s="3" t="s">
         <v>29</v>
       </c>
@@ -6904,23 +6908,23 @@
       <c r="L48" s="4"/>
       <c r="M48" s="4"/>
       <c r="N48" s="4"/>
-      <c r="O48" s="274"/>
+      <c r="O48" s="311"/>
     </row>
     <row r="55" spans="2:16" ht="15.6">
-      <c r="B55" s="270" t="s">
+      <c r="B55" s="307" t="s">
         <v>139</v>
       </c>
-      <c r="C55" s="270"/>
-      <c r="D55" s="270"/>
+      <c r="C55" s="307"/>
+      <c r="D55" s="307"/>
       <c r="E55" s="1"/>
-      <c r="F55" s="270" t="s">
+      <c r="F55" s="307" t="s">
         <v>140</v>
       </c>
-      <c r="G55" s="270"/>
-      <c r="H55" s="270"/>
-      <c r="I55" s="270"/>
-      <c r="J55" s="270"/>
-      <c r="K55" s="270"/>
+      <c r="G55" s="307"/>
+      <c r="H55" s="307"/>
+      <c r="I55" s="307"/>
+      <c r="J55" s="307"/>
+      <c r="K55" s="307"/>
       <c r="L55" s="1"/>
       <c r="M55" s="1"/>
       <c r="N55" s="1"/>
@@ -6928,16 +6932,16 @@
       <c r="P55" s="1"/>
     </row>
     <row r="65" spans="10:19" ht="15.6">
-      <c r="J65" s="270"/>
-      <c r="K65" s="270"/>
-      <c r="L65" s="270"/>
-      <c r="M65" s="270"/>
-      <c r="N65" s="270"/>
-      <c r="O65" s="270"/>
-      <c r="P65" s="270"/>
-      <c r="Q65" s="270"/>
-      <c r="R65" s="270"/>
-      <c r="S65" s="270"/>
+      <c r="J65" s="307"/>
+      <c r="K65" s="307"/>
+      <c r="L65" s="307"/>
+      <c r="M65" s="307"/>
+      <c r="N65" s="307"/>
+      <c r="O65" s="307"/>
+      <c r="P65" s="307"/>
+      <c r="Q65" s="307"/>
+      <c r="R65" s="307"/>
+      <c r="S65" s="307"/>
     </row>
     <row r="89" spans="1:22" ht="15" thickBot="1">
       <c r="A89" s="16"/>
@@ -6966,58 +6970,63 @@
       <c r="U90" s="17"/>
     </row>
     <row r="91" spans="1:22" ht="15.6">
-      <c r="J91" s="270" t="s">
+      <c r="J91" s="307" t="s">
         <v>141</v>
       </c>
-      <c r="K91" s="270"/>
-      <c r="L91" s="270"/>
-      <c r="M91" s="270"/>
-      <c r="N91" s="270"/>
-      <c r="O91" s="270"/>
-      <c r="P91" s="270"/>
-      <c r="Q91" s="270"/>
-      <c r="R91" s="270"/>
-      <c r="S91" s="270"/>
+      <c r="K91" s="307"/>
+      <c r="L91" s="307"/>
+      <c r="M91" s="307"/>
+      <c r="N91" s="307"/>
+      <c r="O91" s="307"/>
+      <c r="P91" s="307"/>
+      <c r="Q91" s="307"/>
+      <c r="R91" s="307"/>
+      <c r="S91" s="307"/>
     </row>
     <row r="99" spans="2:19" ht="15.6">
-      <c r="B99" s="270" t="s">
+      <c r="B99" s="307" t="s">
         <v>58</v>
       </c>
-      <c r="C99" s="270"/>
-      <c r="D99" s="270"/>
+      <c r="C99" s="307"/>
+      <c r="D99" s="307"/>
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
     </row>
     <row r="103" spans="2:19" ht="15.6">
-      <c r="J103" s="270" t="s">
+      <c r="J103" s="307" t="s">
         <v>142</v>
       </c>
-      <c r="K103" s="270"/>
-      <c r="L103" s="270"/>
-      <c r="M103" s="270"/>
-      <c r="N103" s="270"/>
-      <c r="O103" s="270"/>
-      <c r="P103" s="270"/>
-      <c r="Q103" s="270"/>
-      <c r="R103" s="270"/>
-      <c r="S103" s="270"/>
+      <c r="K103" s="307"/>
+      <c r="L103" s="307"/>
+      <c r="M103" s="307"/>
+      <c r="N103" s="307"/>
+      <c r="O103" s="307"/>
+      <c r="P103" s="307"/>
+      <c r="Q103" s="307"/>
+      <c r="R103" s="307"/>
+      <c r="S103" s="307"/>
     </row>
     <row r="123" spans="10:19" ht="15.6">
-      <c r="J123" s="270" t="s">
+      <c r="J123" s="307" t="s">
         <v>143</v>
       </c>
-      <c r="K123" s="270"/>
-      <c r="L123" s="270"/>
-      <c r="M123" s="270"/>
-      <c r="N123" s="270"/>
-      <c r="O123" s="270"/>
-      <c r="P123" s="270"/>
-      <c r="Q123" s="270"/>
-      <c r="R123" s="270"/>
-      <c r="S123" s="270"/>
+      <c r="K123" s="307"/>
+      <c r="L123" s="307"/>
+      <c r="M123" s="307"/>
+      <c r="N123" s="307"/>
+      <c r="O123" s="307"/>
+      <c r="P123" s="307"/>
+      <c r="Q123" s="307"/>
+      <c r="R123" s="307"/>
+      <c r="S123" s="307"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="R2:AA2"/>
+    <mergeCell ref="B2:B48"/>
+    <mergeCell ref="O2:O4"/>
+    <mergeCell ref="O5:O42"/>
+    <mergeCell ref="O43:O48"/>
     <mergeCell ref="B99:D99"/>
     <mergeCell ref="J91:S91"/>
     <mergeCell ref="J103:S103"/>
@@ -7026,11 +7035,6 @@
     <mergeCell ref="F55:K55"/>
     <mergeCell ref="B55:D55"/>
     <mergeCell ref="J65:S65"/>
-    <mergeCell ref="R2:AA2"/>
-    <mergeCell ref="B2:B48"/>
-    <mergeCell ref="O2:O4"/>
-    <mergeCell ref="O5:O42"/>
-    <mergeCell ref="O43:O48"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="1">
@@ -10537,316 +10541,336 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="B1" s="276" t="s">
+      <c r="B1" s="313" t="s">
         <v>627</v>
       </c>
-      <c r="C1" s="276"/>
-      <c r="D1" s="276"/>
-      <c r="E1" s="276"/>
-      <c r="F1" s="276"/>
-      <c r="G1" s="276"/>
+      <c r="C1" s="313"/>
+      <c r="D1" s="313"/>
+      <c r="E1" s="313"/>
+      <c r="F1" s="313"/>
+      <c r="G1" s="313"/>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="25">
         <v>1</v>
       </c>
-      <c r="B2" s="333" t="s">
+      <c r="B2" s="366" t="s">
         <v>628</v>
       </c>
-      <c r="C2" s="333"/>
-      <c r="D2" s="333"/>
-      <c r="E2" s="333"/>
-      <c r="F2" s="333"/>
-      <c r="G2" s="333"/>
+      <c r="C2" s="366"/>
+      <c r="D2" s="366"/>
+      <c r="E2" s="366"/>
+      <c r="F2" s="366"/>
+      <c r="G2" s="366"/>
       <c r="H2" s="29"/>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="25">
         <v>2</v>
       </c>
-      <c r="B3" s="333" t="s">
+      <c r="B3" s="366" t="s">
         <v>629</v>
       </c>
-      <c r="C3" s="333"/>
-      <c r="D3" s="333"/>
-      <c r="E3" s="333"/>
-      <c r="F3" s="333"/>
-      <c r="G3" s="333"/>
-      <c r="H3" s="328" t="s">
+      <c r="C3" s="366"/>
+      <c r="D3" s="366"/>
+      <c r="E3" s="366"/>
+      <c r="F3" s="366"/>
+      <c r="G3" s="366"/>
+      <c r="H3" s="365" t="s">
         <v>630</v>
       </c>
-      <c r="I3" s="328"/>
-      <c r="J3" s="328"/>
-      <c r="K3" s="328"/>
-      <c r="L3" s="328"/>
-      <c r="M3" s="328"/>
+      <c r="I3" s="365"/>
+      <c r="J3" s="365"/>
+      <c r="K3" s="365"/>
+      <c r="L3" s="365"/>
+      <c r="M3" s="365"/>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="25">
         <v>3</v>
       </c>
-      <c r="B4" s="333" t="s">
+      <c r="B4" s="366" t="s">
         <v>631</v>
       </c>
-      <c r="C4" s="333"/>
-      <c r="D4" s="333"/>
-      <c r="E4" s="333"/>
-      <c r="F4" s="333"/>
-      <c r="G4" s="333"/>
-      <c r="H4" s="328"/>
-      <c r="I4" s="328"/>
-      <c r="J4" s="328"/>
-      <c r="K4" s="328"/>
-      <c r="L4" s="328"/>
-      <c r="M4" s="328"/>
+      <c r="C4" s="366"/>
+      <c r="D4" s="366"/>
+      <c r="E4" s="366"/>
+      <c r="F4" s="366"/>
+      <c r="G4" s="366"/>
+      <c r="H4" s="365"/>
+      <c r="I4" s="365"/>
+      <c r="J4" s="365"/>
+      <c r="K4" s="365"/>
+      <c r="L4" s="365"/>
+      <c r="M4" s="365"/>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="25">
         <v>4</v>
       </c>
-      <c r="B5" s="333" t="s">
+      <c r="B5" s="366" t="s">
         <v>632</v>
       </c>
-      <c r="C5" s="333"/>
-      <c r="D5" s="333"/>
-      <c r="E5" s="333"/>
-      <c r="F5" s="333"/>
-      <c r="G5" s="333"/>
-      <c r="H5" s="328"/>
-      <c r="I5" s="328"/>
-      <c r="J5" s="328"/>
-      <c r="K5" s="328"/>
-      <c r="L5" s="328"/>
-      <c r="M5" s="328"/>
+      <c r="C5" s="366"/>
+      <c r="D5" s="366"/>
+      <c r="E5" s="366"/>
+      <c r="F5" s="366"/>
+      <c r="G5" s="366"/>
+      <c r="H5" s="365"/>
+      <c r="I5" s="365"/>
+      <c r="J5" s="365"/>
+      <c r="K5" s="365"/>
+      <c r="L5" s="365"/>
+      <c r="M5" s="365"/>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="25">
         <v>5</v>
       </c>
-      <c r="B6" s="334" t="s">
+      <c r="B6" s="367" t="s">
         <v>633</v>
       </c>
-      <c r="C6" s="335"/>
-      <c r="D6" s="335"/>
-      <c r="E6" s="335"/>
-      <c r="F6" s="335"/>
-      <c r="G6" s="336"/>
-      <c r="H6" s="328"/>
-      <c r="I6" s="328"/>
-      <c r="J6" s="328"/>
-      <c r="K6" s="328"/>
-      <c r="L6" s="328"/>
-      <c r="M6" s="328"/>
+      <c r="C6" s="368"/>
+      <c r="D6" s="368"/>
+      <c r="E6" s="368"/>
+      <c r="F6" s="368"/>
+      <c r="G6" s="369"/>
+      <c r="H6" s="365"/>
+      <c r="I6" s="365"/>
+      <c r="J6" s="365"/>
+      <c r="K6" s="365"/>
+      <c r="L6" s="365"/>
+      <c r="M6" s="365"/>
     </row>
     <row r="7" spans="1:13">
-      <c r="B7" s="276"/>
-      <c r="C7" s="276"/>
-      <c r="D7" s="276"/>
-      <c r="E7" s="276"/>
-      <c r="F7" s="276"/>
-      <c r="G7" s="276"/>
-      <c r="H7" s="328"/>
-      <c r="I7" s="328"/>
-      <c r="J7" s="328"/>
-      <c r="K7" s="328"/>
-      <c r="L7" s="328"/>
-      <c r="M7" s="328"/>
+      <c r="B7" s="313"/>
+      <c r="C7" s="313"/>
+      <c r="D7" s="313"/>
+      <c r="E7" s="313"/>
+      <c r="F7" s="313"/>
+      <c r="G7" s="313"/>
+      <c r="H7" s="365"/>
+      <c r="I7" s="365"/>
+      <c r="J7" s="365"/>
+      <c r="K7" s="365"/>
+      <c r="L7" s="365"/>
+      <c r="M7" s="365"/>
     </row>
     <row r="8" spans="1:13">
-      <c r="B8" s="276"/>
-      <c r="C8" s="276"/>
-      <c r="D8" s="276"/>
-      <c r="E8" s="276"/>
-      <c r="F8" s="276"/>
-      <c r="G8" s="276"/>
-      <c r="H8" s="328"/>
-      <c r="I8" s="328"/>
-      <c r="J8" s="328"/>
-      <c r="K8" s="328"/>
-      <c r="L8" s="328"/>
-      <c r="M8" s="328"/>
+      <c r="B8" s="313"/>
+      <c r="C8" s="313"/>
+      <c r="D8" s="313"/>
+      <c r="E8" s="313"/>
+      <c r="F8" s="313"/>
+      <c r="G8" s="313"/>
+      <c r="H8" s="365"/>
+      <c r="I8" s="365"/>
+      <c r="J8" s="365"/>
+      <c r="K8" s="365"/>
+      <c r="L8" s="365"/>
+      <c r="M8" s="365"/>
     </row>
     <row r="9" spans="1:13">
-      <c r="B9" s="276"/>
-      <c r="C9" s="276"/>
-      <c r="D9" s="276"/>
-      <c r="E9" s="276"/>
-      <c r="F9" s="276"/>
-      <c r="G9" s="276"/>
-      <c r="H9" s="328"/>
-      <c r="I9" s="328"/>
-      <c r="J9" s="328"/>
-      <c r="K9" s="328"/>
-      <c r="L9" s="328"/>
-      <c r="M9" s="328"/>
+      <c r="B9" s="313"/>
+      <c r="C9" s="313"/>
+      <c r="D9" s="313"/>
+      <c r="E9" s="313"/>
+      <c r="F9" s="313"/>
+      <c r="G9" s="313"/>
+      <c r="H9" s="365"/>
+      <c r="I9" s="365"/>
+      <c r="J9" s="365"/>
+      <c r="K9" s="365"/>
+      <c r="L9" s="365"/>
+      <c r="M9" s="365"/>
     </row>
     <row r="10" spans="1:13">
-      <c r="B10" s="276"/>
-      <c r="C10" s="276"/>
-      <c r="D10" s="276"/>
-      <c r="E10" s="276"/>
-      <c r="F10" s="276"/>
-      <c r="G10" s="276"/>
-      <c r="H10" s="328"/>
-      <c r="I10" s="328"/>
-      <c r="J10" s="328"/>
-      <c r="K10" s="328"/>
-      <c r="L10" s="328"/>
-      <c r="M10" s="328"/>
+      <c r="B10" s="313"/>
+      <c r="C10" s="313"/>
+      <c r="D10" s="313"/>
+      <c r="E10" s="313"/>
+      <c r="F10" s="313"/>
+      <c r="G10" s="313"/>
+      <c r="H10" s="365"/>
+      <c r="I10" s="365"/>
+      <c r="J10" s="365"/>
+      <c r="K10" s="365"/>
+      <c r="L10" s="365"/>
+      <c r="M10" s="365"/>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="25">
         <v>1</v>
       </c>
-      <c r="B11" s="332" t="s">
+      <c r="B11" s="370" t="s">
         <v>634</v>
       </c>
-      <c r="C11" s="332"/>
-      <c r="D11" s="332"/>
-      <c r="E11" s="332"/>
-      <c r="F11" s="332"/>
-      <c r="G11" s="332"/>
-      <c r="H11" s="330"/>
-      <c r="I11" s="330"/>
-      <c r="J11" s="330"/>
-      <c r="K11" s="330"/>
-      <c r="L11" s="330"/>
-      <c r="M11" s="330"/>
+      <c r="C11" s="370"/>
+      <c r="D11" s="370"/>
+      <c r="E11" s="370"/>
+      <c r="F11" s="370"/>
+      <c r="G11" s="370"/>
+      <c r="H11" s="372"/>
+      <c r="I11" s="372"/>
+      <c r="J11" s="372"/>
+      <c r="K11" s="372"/>
+      <c r="L11" s="372"/>
+      <c r="M11" s="372"/>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="25">
         <v>2</v>
       </c>
-      <c r="B12" s="329" t="s">
+      <c r="B12" s="371" t="s">
         <v>635</v>
       </c>
-      <c r="C12" s="329"/>
-      <c r="D12" s="329"/>
-      <c r="E12" s="329"/>
-      <c r="F12" s="329"/>
-      <c r="G12" s="329"/>
-      <c r="H12" s="330" t="s">
+      <c r="C12" s="371"/>
+      <c r="D12" s="371"/>
+      <c r="E12" s="371"/>
+      <c r="F12" s="371"/>
+      <c r="G12" s="371"/>
+      <c r="H12" s="372" t="s">
         <v>636</v>
       </c>
-      <c r="I12" s="330"/>
-      <c r="J12" s="330"/>
-      <c r="K12" s="330"/>
-      <c r="L12" s="330"/>
-      <c r="M12" s="330"/>
+      <c r="I12" s="372"/>
+      <c r="J12" s="372"/>
+      <c r="K12" s="372"/>
+      <c r="L12" s="372"/>
+      <c r="M12" s="372"/>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="25">
         <v>3</v>
       </c>
-      <c r="B13" s="329" t="s">
+      <c r="B13" s="371" t="s">
         <v>637</v>
       </c>
-      <c r="C13" s="329"/>
-      <c r="D13" s="329"/>
-      <c r="E13" s="329"/>
-      <c r="F13" s="329"/>
-      <c r="G13" s="329"/>
-      <c r="H13" s="330"/>
-      <c r="I13" s="330"/>
-      <c r="J13" s="330"/>
-      <c r="K13" s="330"/>
-      <c r="L13" s="330"/>
-      <c r="M13" s="330"/>
+      <c r="C13" s="371"/>
+      <c r="D13" s="371"/>
+      <c r="E13" s="371"/>
+      <c r="F13" s="371"/>
+      <c r="G13" s="371"/>
+      <c r="H13" s="372"/>
+      <c r="I13" s="372"/>
+      <c r="J13" s="372"/>
+      <c r="K13" s="372"/>
+      <c r="L13" s="372"/>
+      <c r="M13" s="372"/>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="25">
         <v>4</v>
       </c>
-      <c r="B14" s="331" t="s">
+      <c r="B14" s="373" t="s">
         <v>638</v>
       </c>
-      <c r="C14" s="331"/>
-      <c r="D14" s="331"/>
-      <c r="E14" s="331"/>
-      <c r="F14" s="331"/>
-      <c r="G14" s="331"/>
-      <c r="H14" s="330"/>
-      <c r="I14" s="330"/>
-      <c r="J14" s="330"/>
-      <c r="K14" s="330"/>
-      <c r="L14" s="330"/>
-      <c r="M14" s="330"/>
+      <c r="C14" s="373"/>
+      <c r="D14" s="373"/>
+      <c r="E14" s="373"/>
+      <c r="F14" s="373"/>
+      <c r="G14" s="373"/>
+      <c r="H14" s="372"/>
+      <c r="I14" s="372"/>
+      <c r="J14" s="372"/>
+      <c r="K14" s="372"/>
+      <c r="L14" s="372"/>
+      <c r="M14" s="372"/>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="25">
         <v>5</v>
       </c>
-      <c r="B15" s="331" t="s">
+      <c r="B15" s="373" t="s">
         <v>639</v>
       </c>
-      <c r="C15" s="331"/>
-      <c r="D15" s="331"/>
-      <c r="E15" s="331"/>
-      <c r="F15" s="331"/>
-      <c r="G15" s="331"/>
-      <c r="H15" s="330" t="s">
+      <c r="C15" s="373"/>
+      <c r="D15" s="373"/>
+      <c r="E15" s="373"/>
+      <c r="F15" s="373"/>
+      <c r="G15" s="373"/>
+      <c r="H15" s="372" t="s">
         <v>640</v>
       </c>
-      <c r="I15" s="330"/>
-      <c r="J15" s="330"/>
-      <c r="K15" s="330"/>
-      <c r="L15" s="330"/>
-      <c r="M15" s="330"/>
+      <c r="I15" s="372"/>
+      <c r="J15" s="372"/>
+      <c r="K15" s="372"/>
+      <c r="L15" s="372"/>
+      <c r="M15" s="372"/>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="25">
         <v>6</v>
       </c>
-      <c r="B16" s="329" t="s">
+      <c r="B16" s="371" t="s">
         <v>641</v>
       </c>
-      <c r="C16" s="329"/>
-      <c r="D16" s="329"/>
-      <c r="E16" s="329"/>
-      <c r="F16" s="329"/>
-      <c r="G16" s="329"/>
-      <c r="H16" s="330"/>
-      <c r="I16" s="330"/>
-      <c r="J16" s="330"/>
-      <c r="K16" s="330"/>
-      <c r="L16" s="330"/>
-      <c r="M16" s="330"/>
+      <c r="C16" s="371"/>
+      <c r="D16" s="371"/>
+      <c r="E16" s="371"/>
+      <c r="F16" s="371"/>
+      <c r="G16" s="371"/>
+      <c r="H16" s="372"/>
+      <c r="I16" s="372"/>
+      <c r="J16" s="372"/>
+      <c r="K16" s="372"/>
+      <c r="L16" s="372"/>
+      <c r="M16" s="372"/>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="25">
         <v>7</v>
       </c>
-      <c r="B17" s="329" t="s">
+      <c r="B17" s="371" t="s">
         <v>642</v>
       </c>
-      <c r="C17" s="329"/>
-      <c r="D17" s="329"/>
-      <c r="E17" s="329"/>
-      <c r="F17" s="329"/>
-      <c r="G17" s="329"/>
-      <c r="H17" s="330"/>
-      <c r="I17" s="330"/>
-      <c r="J17" s="330"/>
-      <c r="K17" s="330"/>
-      <c r="L17" s="330"/>
-      <c r="M17" s="330"/>
+      <c r="C17" s="371"/>
+      <c r="D17" s="371"/>
+      <c r="E17" s="371"/>
+      <c r="F17" s="371"/>
+      <c r="G17" s="371"/>
+      <c r="H17" s="372"/>
+      <c r="I17" s="372"/>
+      <c r="J17" s="372"/>
+      <c r="K17" s="372"/>
+      <c r="L17" s="372"/>
+      <c r="M17" s="372"/>
     </row>
     <row r="18" spans="1:13">
-      <c r="B18" s="276"/>
-      <c r="C18" s="276"/>
-      <c r="D18" s="276"/>
-      <c r="E18" s="276"/>
-      <c r="F18" s="276"/>
-      <c r="G18" s="276"/>
-      <c r="H18" s="328"/>
-      <c r="I18" s="328"/>
-      <c r="J18" s="328"/>
-      <c r="K18" s="328"/>
-      <c r="L18" s="328"/>
-      <c r="M18" s="328"/>
+      <c r="B18" s="313"/>
+      <c r="C18" s="313"/>
+      <c r="D18" s="313"/>
+      <c r="E18" s="313"/>
+      <c r="F18" s="313"/>
+      <c r="G18" s="313"/>
+      <c r="H18" s="365"/>
+      <c r="I18" s="365"/>
+      <c r="J18" s="365"/>
+      <c r="K18" s="365"/>
+      <c r="L18" s="365"/>
+      <c r="M18" s="365"/>
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="H18:M18"/>
+    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="H13:M13"/>
+    <mergeCell ref="H15:M15"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="H11:M11"/>
+    <mergeCell ref="H12:M12"/>
+    <mergeCell ref="H14:M14"/>
+    <mergeCell ref="H16:M16"/>
+    <mergeCell ref="H17:M17"/>
+    <mergeCell ref="B11:G11"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="B10:G10"/>
     <mergeCell ref="H8:M8"/>
     <mergeCell ref="H9:M9"/>
     <mergeCell ref="H10:M10"/>
@@ -10861,26 +10885,6 @@
     <mergeCell ref="H5:M5"/>
     <mergeCell ref="H6:M6"/>
     <mergeCell ref="H7:M7"/>
-    <mergeCell ref="B11:G11"/>
-    <mergeCell ref="B12:G12"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="B9:G9"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="H11:M11"/>
-    <mergeCell ref="H12:M12"/>
-    <mergeCell ref="H14:M14"/>
-    <mergeCell ref="H16:M16"/>
-    <mergeCell ref="H17:M17"/>
-    <mergeCell ref="H18:M18"/>
-    <mergeCell ref="B13:G13"/>
-    <mergeCell ref="H13:M13"/>
-    <mergeCell ref="H15:M15"/>
-    <mergeCell ref="B18:G18"/>
-    <mergeCell ref="B14:G14"/>
-    <mergeCell ref="B15:G15"/>
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="B17:G17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11573,19 +11577,19 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="37.200000000000003" customHeight="1">
-      <c r="A3" s="278" t="s">
+      <c r="A3" s="315" t="s">
         <v>146</v>
       </c>
-      <c r="B3" s="280" t="s">
+      <c r="B3" s="317" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="280" t="s">
+      <c r="C3" s="317" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="280" t="s">
+      <c r="D3" s="317" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="277" t="s">
+      <c r="E3" s="314" t="s">
         <v>147</v>
       </c>
       <c r="F3" s="29" t="s">
@@ -11593,11 +11597,11 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="20.7" customHeight="1">
-      <c r="A4" s="279"/>
-      <c r="B4" s="281"/>
-      <c r="C4" s="281"/>
-      <c r="D4" s="281"/>
-      <c r="E4" s="277"/>
+      <c r="A4" s="316"/>
+      <c r="B4" s="318"/>
+      <c r="C4" s="318"/>
+      <c r="D4" s="318"/>
+      <c r="E4" s="314"/>
       <c r="F4" s="29" t="s">
         <v>149</v>
       </c>
@@ -11655,10 +11659,10 @@
       <c r="D7" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="277" t="s">
+      <c r="E7" s="314" t="s">
         <v>154</v>
       </c>
-      <c r="F7" s="275" t="s">
+      <c r="F7" s="312" t="s">
         <v>155</v>
       </c>
     </row>
@@ -11675,8 +11679,8 @@
       <c r="D8" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="E8" s="277"/>
-      <c r="F8" s="276"/>
+      <c r="E8" s="314"/>
+      <c r="F8" s="313"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="195" t="s">
@@ -11691,8 +11695,8 @@
       <c r="D9" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E9" s="277"/>
-      <c r="F9" s="276"/>
+      <c r="E9" s="314"/>
+      <c r="F9" s="313"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="195" t="s">
@@ -11707,8 +11711,8 @@
       <c r="D10" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="E10" s="277"/>
-      <c r="F10" s="276"/>
+      <c r="E10" s="314"/>
+      <c r="F10" s="313"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="214" t="s">
@@ -11723,8 +11727,8 @@
       <c r="D11" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="E11" s="277"/>
-      <c r="F11" s="276"/>
+      <c r="E11" s="314"/>
+      <c r="F11" s="313"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="214" t="s">
@@ -11739,8 +11743,8 @@
       <c r="D12" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="E12" s="277"/>
-      <c r="F12" s="276"/>
+      <c r="E12" s="314"/>
+      <c r="F12" s="313"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="195" t="s">
@@ -11758,7 +11762,7 @@
       <c r="E13" s="48" t="s">
         <v>156</v>
       </c>
-      <c r="F13" s="276" t="s">
+      <c r="F13" s="313" t="s">
         <v>157</v>
       </c>
     </row>
@@ -11778,7 +11782,7 @@
       <c r="E14" s="40" t="s">
         <v>158</v>
       </c>
-      <c r="F14" s="276"/>
+      <c r="F14" s="313"/>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="195" t="s">
@@ -11796,7 +11800,7 @@
       <c r="E15" s="40" t="s">
         <v>159</v>
       </c>
-      <c r="F15" s="276"/>
+      <c r="F15" s="313"/>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="214" t="s">
@@ -11814,7 +11818,7 @@
       <c r="E16" s="48" t="s">
         <v>156</v>
       </c>
-      <c r="F16" s="276"/>
+      <c r="F16" s="313"/>
     </row>
     <row r="17" spans="1:6" ht="28.8">
       <c r="A17" s="214" t="s">
@@ -11832,7 +11836,7 @@
       <c r="E17" s="40" t="s">
         <v>160</v>
       </c>
-      <c r="F17" s="276"/>
+      <c r="F17" s="313"/>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="195" t="s">
@@ -11847,7 +11851,7 @@
       <c r="D18" s="45" t="s">
         <v>68</v>
       </c>
-      <c r="E18" s="277" t="s">
+      <c r="E18" s="314" t="s">
         <v>161</v>
       </c>
     </row>
@@ -11864,7 +11868,7 @@
       <c r="D19" s="45" t="s">
         <v>71</v>
       </c>
-      <c r="E19" s="277"/>
+      <c r="E19" s="314"/>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="195" t="s">
@@ -11879,7 +11883,7 @@
       <c r="D20" s="45" t="s">
         <v>73</v>
       </c>
-      <c r="E20" s="277"/>
+      <c r="E20" s="314"/>
     </row>
     <row r="21" spans="1:6" ht="43.2">
       <c r="A21" s="195" t="s">
@@ -11954,7 +11958,7 @@
       <c r="D24" s="43" t="s">
         <v>83</v>
       </c>
-      <c r="E24" s="277" t="s">
+      <c r="E24" s="314" t="s">
         <v>168</v>
       </c>
     </row>
@@ -11971,7 +11975,7 @@
       <c r="D25" s="43" t="s">
         <v>85</v>
       </c>
-      <c r="E25" s="277"/>
+      <c r="E25" s="314"/>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="195" t="s">
@@ -11986,7 +11990,7 @@
       <c r="D26" s="43" t="s">
         <v>87</v>
       </c>
-      <c r="E26" s="277"/>
+      <c r="E26" s="314"/>
     </row>
     <row r="27" spans="1:6" ht="28.8">
       <c r="A27" s="195" t="s">
@@ -12052,7 +12056,7 @@
       <c r="D30" s="46" t="s">
         <v>96</v>
       </c>
-      <c r="E30" s="277" t="s">
+      <c r="E30" s="314" t="s">
         <v>172</v>
       </c>
     </row>
@@ -12069,7 +12073,7 @@
       <c r="D31" s="46" t="s">
         <v>99</v>
       </c>
-      <c r="E31" s="277"/>
+      <c r="E31" s="314"/>
     </row>
     <row r="32" spans="1:6" ht="28.8">
       <c r="A32" s="195" t="s">
@@ -12104,7 +12108,7 @@
       <c r="D33" s="46" t="s">
         <v>103</v>
       </c>
-      <c r="E33" s="277" t="s">
+      <c r="E33" s="314" t="s">
         <v>175</v>
       </c>
       <c r="F33" s="53" t="s">
@@ -12124,7 +12128,7 @@
       <c r="D34" s="46" t="s">
         <v>105</v>
       </c>
-      <c r="E34" s="277"/>
+      <c r="E34" s="314"/>
       <c r="F34" s="53" t="s">
         <v>177</v>
       </c>
@@ -12159,7 +12163,7 @@
       <c r="D36" s="46" t="s">
         <v>109</v>
       </c>
-      <c r="E36" s="277" t="s">
+      <c r="E36" s="314" t="s">
         <v>173</v>
       </c>
       <c r="F36" s="184" t="s">
@@ -12179,7 +12183,7 @@
       <c r="D37" s="46" t="s">
         <v>111</v>
       </c>
-      <c r="E37" s="277"/>
+      <c r="E37" s="314"/>
       <c r="F37" s="53" t="s">
         <v>180</v>
       </c>
@@ -12197,7 +12201,7 @@
       <c r="D38" s="46" t="s">
         <v>113</v>
       </c>
-      <c r="E38" s="277" t="s">
+      <c r="E38" s="314" t="s">
         <v>181</v>
       </c>
     </row>
@@ -12214,7 +12218,7 @@
       <c r="D39" s="46" t="s">
         <v>115</v>
       </c>
-      <c r="E39" s="277"/>
+      <c r="E39" s="314"/>
     </row>
     <row r="40" spans="1:6" ht="201.6">
       <c r="A40" s="51" t="s">
@@ -12399,7 +12403,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{933C4D8B-C05A-4C4C-BDCC-82D5E9D16AA8}">
   <dimension ref="A1:BT72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="D7" sqref="D7:J27"/>
     </sheetView>
   </sheetViews>
@@ -12423,78 +12427,78 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:72" ht="15.75" customHeight="1">
-      <c r="A1" s="286" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="286" t="s">
+      <c r="A1" s="319" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="319" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="291" t="s">
+      <c r="C1" s="324" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="289" t="s">
+      <c r="D1" s="322" t="s">
         <v>186</v>
       </c>
-      <c r="E1" s="290"/>
-      <c r="F1" s="290"/>
-      <c r="G1" s="290"/>
-      <c r="H1" s="290"/>
-      <c r="I1" s="290"/>
-      <c r="J1" s="290"/>
-      <c r="K1" s="290"/>
-      <c r="L1" s="290"/>
-      <c r="M1" s="290"/>
-      <c r="N1" s="290"/>
-      <c r="O1" s="290"/>
-      <c r="P1" s="290"/>
-      <c r="Q1" s="290"/>
-      <c r="R1" s="290"/>
-      <c r="S1" s="290"/>
-      <c r="T1" s="290"/>
-      <c r="U1" s="290"/>
-      <c r="V1" s="290"/>
-      <c r="W1" s="290"/>
-      <c r="X1" s="290"/>
-      <c r="Y1" s="290"/>
-      <c r="Z1" s="290"/>
-      <c r="AA1" s="290"/>
-      <c r="AB1" s="290"/>
-      <c r="AC1" s="290"/>
-      <c r="AD1" s="290"/>
-      <c r="AE1" s="290"/>
-      <c r="AF1" s="290"/>
-      <c r="AG1" s="290"/>
-      <c r="AH1" s="290"/>
-      <c r="AI1" s="290"/>
+      <c r="E1" s="323"/>
+      <c r="F1" s="323"/>
+      <c r="G1" s="323"/>
+      <c r="H1" s="323"/>
+      <c r="I1" s="323"/>
+      <c r="J1" s="323"/>
+      <c r="K1" s="323"/>
+      <c r="L1" s="323"/>
+      <c r="M1" s="323"/>
+      <c r="N1" s="323"/>
+      <c r="O1" s="323"/>
+      <c r="P1" s="323"/>
+      <c r="Q1" s="323"/>
+      <c r="R1" s="323"/>
+      <c r="S1" s="323"/>
+      <c r="T1" s="323"/>
+      <c r="U1" s="323"/>
+      <c r="V1" s="323"/>
+      <c r="W1" s="323"/>
+      <c r="X1" s="323"/>
+      <c r="Y1" s="323"/>
+      <c r="Z1" s="323"/>
+      <c r="AA1" s="323"/>
+      <c r="AB1" s="323"/>
+      <c r="AC1" s="323"/>
+      <c r="AD1" s="323"/>
+      <c r="AE1" s="323"/>
+      <c r="AF1" s="323"/>
+      <c r="AG1" s="323"/>
+      <c r="AH1" s="323"/>
+      <c r="AI1" s="323"/>
       <c r="AJ1" s="226"/>
-      <c r="AK1" s="302"/>
-      <c r="AL1" s="303"/>
-      <c r="AM1" s="294" t="s">
+      <c r="AK1" s="337"/>
+      <c r="AL1" s="338"/>
+      <c r="AM1" s="329" t="s">
         <v>187</v>
       </c>
-      <c r="AN1" s="295"/>
-      <c r="AO1" s="295"/>
-      <c r="AP1" s="295"/>
-      <c r="AQ1" s="295"/>
-      <c r="AR1" s="295"/>
-      <c r="AS1" s="295"/>
-      <c r="AT1" s="295"/>
-      <c r="AU1" s="295"/>
-      <c r="AV1" s="295"/>
-      <c r="AW1" s="295"/>
-      <c r="AX1" s="295"/>
-      <c r="AY1" s="295"/>
-      <c r="AZ1" s="295"/>
-      <c r="BA1" s="295"/>
-      <c r="BB1" s="295"/>
-      <c r="BC1" s="295"/>
-      <c r="BD1" s="295"/>
-      <c r="BE1" s="295"/>
+      <c r="AN1" s="330"/>
+      <c r="AO1" s="330"/>
+      <c r="AP1" s="330"/>
+      <c r="AQ1" s="330"/>
+      <c r="AR1" s="330"/>
+      <c r="AS1" s="330"/>
+      <c r="AT1" s="330"/>
+      <c r="AU1" s="330"/>
+      <c r="AV1" s="330"/>
+      <c r="AW1" s="330"/>
+      <c r="AX1" s="330"/>
+      <c r="AY1" s="330"/>
+      <c r="AZ1" s="330"/>
+      <c r="BA1" s="330"/>
+      <c r="BB1" s="330"/>
+      <c r="BC1" s="330"/>
+      <c r="BD1" s="330"/>
+      <c r="BE1" s="330"/>
     </row>
     <row r="2" spans="1:72" ht="15.75" customHeight="1">
-      <c r="A2" s="287"/>
-      <c r="B2" s="287"/>
-      <c r="C2" s="292"/>
+      <c r="A2" s="320"/>
+      <c r="B2" s="320"/>
+      <c r="C2" s="325"/>
       <c r="D2" s="223"/>
       <c r="E2" s="224"/>
       <c r="F2" s="224"/>
@@ -12583,9 +12587,9 @@
       </c>
     </row>
     <row r="3" spans="1:72" ht="15.75" customHeight="1">
-      <c r="A3" s="288"/>
-      <c r="B3" s="288"/>
-      <c r="C3" s="293"/>
+      <c r="A3" s="321"/>
+      <c r="B3" s="321"/>
+      <c r="C3" s="326"/>
       <c r="D3" s="100">
         <v>31</v>
       </c>
@@ -12758,109 +12762,109 @@
       <c r="BT3" s="199"/>
     </row>
     <row r="4" spans="1:72" ht="15.75" customHeight="1">
-      <c r="A4" s="337" t="s">
+      <c r="A4" s="270" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="337" t="s">
+      <c r="B4" s="270" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="338" t="s">
+      <c r="C4" s="271" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="339" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" s="339" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" s="339" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" s="339" t="s">
-        <v>29</v>
-      </c>
-      <c r="H4" s="339" t="s">
-        <v>29</v>
-      </c>
-      <c r="I4" s="339" t="s">
-        <v>29</v>
-      </c>
-      <c r="J4" s="339" t="s">
-        <v>29</v>
-      </c>
-      <c r="K4" s="339" t="s">
-        <v>29</v>
-      </c>
-      <c r="L4" s="339" t="s">
-        <v>29</v>
-      </c>
-      <c r="M4" s="339" t="s">
-        <v>29</v>
-      </c>
-      <c r="N4" s="339" t="s">
-        <v>29</v>
-      </c>
-      <c r="O4" s="339" t="s">
-        <v>29</v>
-      </c>
-      <c r="P4" s="340" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q4" s="340" t="s">
-        <v>29</v>
-      </c>
-      <c r="R4" s="340" t="s">
-        <v>29</v>
-      </c>
-      <c r="S4" s="340" t="s">
-        <v>29</v>
-      </c>
-      <c r="T4" s="340" t="s">
-        <v>29</v>
-      </c>
-      <c r="U4" s="341" t="s">
-        <v>29</v>
-      </c>
-      <c r="V4" s="341" t="s">
-        <v>29</v>
-      </c>
-      <c r="W4" s="341" t="s">
-        <v>29</v>
-      </c>
-      <c r="X4" s="342" t="s">
-        <v>95</v>
-      </c>
-      <c r="Y4" s="342" t="s">
-        <v>95</v>
-      </c>
-      <c r="Z4" s="342" t="s">
-        <v>95</v>
-      </c>
-      <c r="AA4" s="342" t="s">
-        <v>95</v>
-      </c>
-      <c r="AB4" s="342" t="s">
-        <v>95</v>
-      </c>
-      <c r="AC4" s="343">
-        <v>0</v>
-      </c>
-      <c r="AD4" s="343">
-        <v>1</v>
-      </c>
-      <c r="AE4" s="343">
-        <v>1</v>
-      </c>
-      <c r="AF4" s="343">
-        <v>0</v>
-      </c>
-      <c r="AG4" s="343">
-        <v>1</v>
-      </c>
-      <c r="AH4" s="343">
-        <v>1</v>
-      </c>
-      <c r="AI4" s="344">
+      <c r="D4" s="272" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="272" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="272" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="272" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="272" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" s="272" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" s="272" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" s="272" t="s">
+        <v>29</v>
+      </c>
+      <c r="L4" s="272" t="s">
+        <v>29</v>
+      </c>
+      <c r="M4" s="272" t="s">
+        <v>29</v>
+      </c>
+      <c r="N4" s="272" t="s">
+        <v>29</v>
+      </c>
+      <c r="O4" s="272" t="s">
+        <v>29</v>
+      </c>
+      <c r="P4" s="273" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q4" s="273" t="s">
+        <v>29</v>
+      </c>
+      <c r="R4" s="273" t="s">
+        <v>29</v>
+      </c>
+      <c r="S4" s="273" t="s">
+        <v>29</v>
+      </c>
+      <c r="T4" s="273" t="s">
+        <v>29</v>
+      </c>
+      <c r="U4" s="274" t="s">
+        <v>29</v>
+      </c>
+      <c r="V4" s="274" t="s">
+        <v>29</v>
+      </c>
+      <c r="W4" s="274" t="s">
+        <v>29</v>
+      </c>
+      <c r="X4" s="275" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y4" s="275" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z4" s="275" t="s">
+        <v>95</v>
+      </c>
+      <c r="AA4" s="275" t="s">
+        <v>95</v>
+      </c>
+      <c r="AB4" s="275" t="s">
+        <v>95</v>
+      </c>
+      <c r="AC4" s="276">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="276">
+        <v>1</v>
+      </c>
+      <c r="AE4" s="276">
+        <v>1</v>
+      </c>
+      <c r="AF4" s="276">
+        <v>0</v>
+      </c>
+      <c r="AG4" s="276">
+        <v>1</v>
+      </c>
+      <c r="AH4" s="276">
+        <v>1</v>
+      </c>
+      <c r="AI4" s="277">
         <v>1</v>
       </c>
       <c r="AJ4" s="237" t="s">
@@ -12941,109 +12945,109 @@
       <c r="BT4" s="56"/>
     </row>
     <row r="5" spans="1:72" ht="15.75" customHeight="1">
-      <c r="A5" s="337" t="s">
+      <c r="A5" s="270" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="337" t="s">
+      <c r="B5" s="270" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="338" t="s">
+      <c r="C5" s="271" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="339" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="339" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" s="339" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" s="339" t="s">
-        <v>29</v>
-      </c>
-      <c r="H5" s="339" t="s">
-        <v>29</v>
-      </c>
-      <c r="I5" s="339" t="s">
-        <v>29</v>
-      </c>
-      <c r="J5" s="339" t="s">
-        <v>29</v>
-      </c>
-      <c r="K5" s="339" t="s">
-        <v>29</v>
-      </c>
-      <c r="L5" s="339" t="s">
-        <v>29</v>
-      </c>
-      <c r="M5" s="339" t="s">
-        <v>29</v>
-      </c>
-      <c r="N5" s="339" t="s">
-        <v>29</v>
-      </c>
-      <c r="O5" s="339" t="s">
-        <v>29</v>
-      </c>
-      <c r="P5" s="345" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q5" s="345" t="s">
-        <v>29</v>
-      </c>
-      <c r="R5" s="345" t="s">
-        <v>29</v>
-      </c>
-      <c r="S5" s="345" t="s">
-        <v>29</v>
-      </c>
-      <c r="T5" s="345" t="s">
-        <v>29</v>
-      </c>
-      <c r="U5" s="346" t="s">
-        <v>29</v>
-      </c>
-      <c r="V5" s="346" t="s">
-        <v>29</v>
-      </c>
-      <c r="W5" s="346" t="s">
-        <v>29</v>
-      </c>
-      <c r="X5" s="342" t="s">
-        <v>95</v>
-      </c>
-      <c r="Y5" s="342" t="s">
-        <v>95</v>
-      </c>
-      <c r="Z5" s="342" t="s">
-        <v>95</v>
-      </c>
-      <c r="AA5" s="342" t="s">
-        <v>95</v>
-      </c>
-      <c r="AB5" s="342" t="s">
-        <v>95</v>
-      </c>
-      <c r="AC5" s="343">
-        <v>0</v>
-      </c>
-      <c r="AD5" s="343">
-        <v>0</v>
-      </c>
-      <c r="AE5" s="343">
-        <v>1</v>
-      </c>
-      <c r="AF5" s="343">
-        <v>0</v>
-      </c>
-      <c r="AG5" s="343">
-        <v>1</v>
-      </c>
-      <c r="AH5" s="343">
-        <v>1</v>
-      </c>
-      <c r="AI5" s="344">
+      <c r="D5" s="272" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="272" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="272" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="272" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="272" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" s="272" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" s="272" t="s">
+        <v>29</v>
+      </c>
+      <c r="K5" s="272" t="s">
+        <v>29</v>
+      </c>
+      <c r="L5" s="272" t="s">
+        <v>29</v>
+      </c>
+      <c r="M5" s="272" t="s">
+        <v>29</v>
+      </c>
+      <c r="N5" s="272" t="s">
+        <v>29</v>
+      </c>
+      <c r="O5" s="272" t="s">
+        <v>29</v>
+      </c>
+      <c r="P5" s="278" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q5" s="278" t="s">
+        <v>29</v>
+      </c>
+      <c r="R5" s="278" t="s">
+        <v>29</v>
+      </c>
+      <c r="S5" s="278" t="s">
+        <v>29</v>
+      </c>
+      <c r="T5" s="278" t="s">
+        <v>29</v>
+      </c>
+      <c r="U5" s="279" t="s">
+        <v>29</v>
+      </c>
+      <c r="V5" s="279" t="s">
+        <v>29</v>
+      </c>
+      <c r="W5" s="279" t="s">
+        <v>29</v>
+      </c>
+      <c r="X5" s="275" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y5" s="275" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z5" s="275" t="s">
+        <v>95</v>
+      </c>
+      <c r="AA5" s="275" t="s">
+        <v>95</v>
+      </c>
+      <c r="AB5" s="275" t="s">
+        <v>95</v>
+      </c>
+      <c r="AC5" s="276">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="276">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="276">
+        <v>1</v>
+      </c>
+      <c r="AF5" s="276">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="276">
+        <v>1</v>
+      </c>
+      <c r="AH5" s="276">
+        <v>1</v>
+      </c>
+      <c r="AI5" s="277">
         <v>1</v>
       </c>
       <c r="AJ5" s="237" t="s">
@@ -13124,109 +13128,109 @@
       <c r="BT5" s="56"/>
     </row>
     <row r="6" spans="1:72" ht="15.75" customHeight="1">
-      <c r="A6" s="347" t="s">
+      <c r="A6" s="280" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="347" t="s">
+      <c r="B6" s="280" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="348" t="s">
+      <c r="C6" s="281" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="349" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="349" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" s="349" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6" s="349" t="s">
-        <v>29</v>
-      </c>
-      <c r="H6" s="349" t="s">
-        <v>29</v>
-      </c>
-      <c r="I6" s="349" t="s">
-        <v>29</v>
-      </c>
-      <c r="J6" s="349" t="s">
-        <v>29</v>
-      </c>
-      <c r="K6" s="349" t="s">
-        <v>29</v>
-      </c>
-      <c r="L6" s="349" t="s">
-        <v>29</v>
-      </c>
-      <c r="M6" s="349" t="s">
-        <v>29</v>
-      </c>
-      <c r="N6" s="349" t="s">
-        <v>29</v>
-      </c>
-      <c r="O6" s="349" t="s">
-        <v>29</v>
-      </c>
-      <c r="P6" s="350" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q6" s="350" t="s">
-        <v>29</v>
-      </c>
-      <c r="R6" s="350" t="s">
-        <v>29</v>
-      </c>
-      <c r="S6" s="350" t="s">
-        <v>29</v>
-      </c>
-      <c r="T6" s="350" t="s">
-        <v>29</v>
-      </c>
-      <c r="U6" s="351" t="s">
-        <v>29</v>
-      </c>
-      <c r="V6" s="351" t="s">
-        <v>29</v>
-      </c>
-      <c r="W6" s="351" t="s">
-        <v>29</v>
-      </c>
-      <c r="X6" s="352" t="s">
-        <v>95</v>
-      </c>
-      <c r="Y6" s="352" t="s">
-        <v>95</v>
-      </c>
-      <c r="Z6" s="352" t="s">
-        <v>95</v>
-      </c>
-      <c r="AA6" s="352" t="s">
-        <v>95</v>
-      </c>
-      <c r="AB6" s="352" t="s">
-        <v>95</v>
-      </c>
-      <c r="AC6" s="353">
-        <v>1</v>
-      </c>
-      <c r="AD6" s="353">
-        <v>1</v>
-      </c>
-      <c r="AE6" s="353">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="353">
-        <v>1</v>
-      </c>
-      <c r="AG6" s="353">
-        <v>1</v>
-      </c>
-      <c r="AH6" s="353">
-        <v>1</v>
-      </c>
-      <c r="AI6" s="354">
+      <c r="D6" s="282" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="282" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="282" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="282" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="282" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" s="282" t="s">
+        <v>29</v>
+      </c>
+      <c r="J6" s="282" t="s">
+        <v>29</v>
+      </c>
+      <c r="K6" s="282" t="s">
+        <v>29</v>
+      </c>
+      <c r="L6" s="282" t="s">
+        <v>29</v>
+      </c>
+      <c r="M6" s="282" t="s">
+        <v>29</v>
+      </c>
+      <c r="N6" s="282" t="s">
+        <v>29</v>
+      </c>
+      <c r="O6" s="282" t="s">
+        <v>29</v>
+      </c>
+      <c r="P6" s="283" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q6" s="283" t="s">
+        <v>29</v>
+      </c>
+      <c r="R6" s="283" t="s">
+        <v>29</v>
+      </c>
+      <c r="S6" s="283" t="s">
+        <v>29</v>
+      </c>
+      <c r="T6" s="283" t="s">
+        <v>29</v>
+      </c>
+      <c r="U6" s="284" t="s">
+        <v>29</v>
+      </c>
+      <c r="V6" s="284" t="s">
+        <v>29</v>
+      </c>
+      <c r="W6" s="284" t="s">
+        <v>29</v>
+      </c>
+      <c r="X6" s="285" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y6" s="285" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z6" s="285" t="s">
+        <v>95</v>
+      </c>
+      <c r="AA6" s="285" t="s">
+        <v>95</v>
+      </c>
+      <c r="AB6" s="285" t="s">
+        <v>95</v>
+      </c>
+      <c r="AC6" s="286">
+        <v>1</v>
+      </c>
+      <c r="AD6" s="286">
+        <v>1</v>
+      </c>
+      <c r="AE6" s="286">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="286">
+        <v>1</v>
+      </c>
+      <c r="AG6" s="286">
+        <v>1</v>
+      </c>
+      <c r="AH6" s="286">
+        <v>1</v>
+      </c>
+      <c r="AI6" s="287">
         <v>1</v>
       </c>
       <c r="AJ6" s="237" t="s">
@@ -13490,13 +13494,13 @@
       <c r="BT7" s="56"/>
     </row>
     <row r="8" spans="1:72" ht="15.75" customHeight="1">
-      <c r="A8" s="358" t="s">
+      <c r="A8" s="291" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="358" t="s">
+      <c r="B8" s="291" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="359" t="s">
+      <c r="C8" s="292" t="s">
         <v>36</v>
       </c>
       <c r="D8" s="125" t="s">
@@ -13673,13 +13677,13 @@
       <c r="BT8" s="56"/>
     </row>
     <row r="9" spans="1:72" ht="15.75" customHeight="1">
-      <c r="A9" s="360" t="s">
+      <c r="A9" s="293" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="360" t="s">
+      <c r="B9" s="293" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="361" t="s">
+      <c r="C9" s="294" t="s">
         <v>39</v>
       </c>
       <c r="D9" s="27" t="s">
@@ -13856,13 +13860,13 @@
       <c r="BT9" s="56"/>
     </row>
     <row r="10" spans="1:72" ht="15.75" customHeight="1">
-      <c r="A10" s="360" t="s">
+      <c r="A10" s="293" t="s">
         <v>41</v>
       </c>
-      <c r="B10" s="360" t="s">
+      <c r="B10" s="293" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="361" t="s">
+      <c r="C10" s="294" t="s">
         <v>42</v>
       </c>
       <c r="D10" s="27" t="s">
@@ -14039,13 +14043,13 @@
       <c r="BT10" s="56"/>
     </row>
     <row r="11" spans="1:72" ht="15.75" customHeight="1">
-      <c r="A11" s="360" t="s">
+      <c r="A11" s="293" t="s">
         <v>44</v>
       </c>
-      <c r="B11" s="360" t="s">
+      <c r="B11" s="293" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="361" t="s">
+      <c r="C11" s="294" t="s">
         <v>45</v>
       </c>
       <c r="D11" s="27" t="s">
@@ -14222,13 +14226,13 @@
       <c r="BT11" s="56"/>
     </row>
     <row r="12" spans="1:72" ht="15.75" customHeight="1">
-      <c r="A12" s="360" t="s">
+      <c r="A12" s="293" t="s">
         <v>47</v>
       </c>
-      <c r="B12" s="360" t="s">
+      <c r="B12" s="293" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="361" t="s">
+      <c r="C12" s="294" t="s">
         <v>48</v>
       </c>
       <c r="D12" s="27" t="s">
@@ -14405,13 +14409,13 @@
       <c r="BT12" s="56"/>
     </row>
     <row r="13" spans="1:72" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A13" s="362" t="s">
+      <c r="A13" s="295" t="s">
         <v>50</v>
       </c>
-      <c r="B13" s="362" t="s">
+      <c r="B13" s="295" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="363" t="s">
+      <c r="C13" s="296" t="s">
         <v>51</v>
       </c>
       <c r="D13" s="110" t="s">
@@ -15503,13 +15507,13 @@
       <c r="BT18" s="56"/>
     </row>
     <row r="19" spans="1:72" ht="15.75" customHeight="1">
-      <c r="A19" s="364" t="s">
+      <c r="A19" s="297" t="s">
         <v>66</v>
       </c>
-      <c r="B19" s="364" t="s">
+      <c r="B19" s="297" t="s">
         <v>67</v>
       </c>
-      <c r="C19" s="365" t="s">
+      <c r="C19" s="298" t="s">
         <v>68</v>
       </c>
       <c r="D19" s="27" t="s">
@@ -15686,13 +15690,13 @@
       <c r="BT19" s="56"/>
     </row>
     <row r="20" spans="1:72" ht="15.75" customHeight="1">
-      <c r="A20" s="364" t="s">
+      <c r="A20" s="297" t="s">
         <v>70</v>
       </c>
-      <c r="B20" s="364" t="s">
+      <c r="B20" s="297" t="s">
         <v>67</v>
       </c>
-      <c r="C20" s="365" t="s">
+      <c r="C20" s="298" t="s">
         <v>71</v>
       </c>
       <c r="D20" s="27" t="s">
@@ -15869,13 +15873,13 @@
       <c r="BT20" s="56"/>
     </row>
     <row r="21" spans="1:72" ht="15.75" customHeight="1">
-      <c r="A21" s="366" t="s">
+      <c r="A21" s="299" t="s">
         <v>72</v>
       </c>
-      <c r="B21" s="366" t="s">
+      <c r="B21" s="299" t="s">
         <v>67</v>
       </c>
-      <c r="C21" s="367" t="s">
+      <c r="C21" s="300" t="s">
         <v>73</v>
       </c>
       <c r="D21" s="110" t="s">
@@ -17699,13 +17703,13 @@
       <c r="BT30" s="56"/>
     </row>
     <row r="31" spans="1:72" ht="15.75" customHeight="1">
-      <c r="A31" s="368" t="s">
+      <c r="A31" s="301" t="s">
         <v>94</v>
       </c>
-      <c r="B31" s="368" t="s">
-        <v>95</v>
-      </c>
-      <c r="C31" s="369" t="s">
+      <c r="B31" s="301" t="s">
+        <v>95</v>
+      </c>
+      <c r="C31" s="302" t="s">
         <v>96</v>
       </c>
       <c r="D31" s="125">
@@ -17882,13 +17886,13 @@
       <c r="BT31" s="56"/>
     </row>
     <row r="32" spans="1:72" ht="15.75" customHeight="1">
-      <c r="A32" s="370" t="s">
+      <c r="A32" s="303" t="s">
         <v>98</v>
       </c>
-      <c r="B32" s="370" t="s">
-        <v>95</v>
-      </c>
-      <c r="C32" s="371" t="s">
+      <c r="B32" s="303" t="s">
+        <v>95</v>
+      </c>
+      <c r="C32" s="304" t="s">
         <v>99</v>
       </c>
       <c r="D32" s="27">
@@ -18065,13 +18069,13 @@
       <c r="BT32" s="56"/>
     </row>
     <row r="33" spans="1:72" ht="15.75" customHeight="1">
-      <c r="A33" s="370" t="s">
+      <c r="A33" s="303" t="s">
         <v>100</v>
       </c>
-      <c r="B33" s="370" t="s">
-        <v>95</v>
-      </c>
-      <c r="C33" s="371" t="s">
+      <c r="B33" s="303" t="s">
+        <v>95</v>
+      </c>
+      <c r="C33" s="304" t="s">
         <v>101</v>
       </c>
       <c r="D33" s="27">
@@ -18248,13 +18252,13 @@
       <c r="BT33" s="56"/>
     </row>
     <row r="34" spans="1:72" ht="15.75" customHeight="1">
-      <c r="A34" s="370" t="s">
+      <c r="A34" s="303" t="s">
         <v>102</v>
       </c>
-      <c r="B34" s="370" t="s">
-        <v>95</v>
-      </c>
-      <c r="C34" s="371" t="s">
+      <c r="B34" s="303" t="s">
+        <v>95</v>
+      </c>
+      <c r="C34" s="304" t="s">
         <v>103</v>
       </c>
       <c r="D34" s="27">
@@ -18431,13 +18435,13 @@
       <c r="BT34" s="56"/>
     </row>
     <row r="35" spans="1:72" ht="15.75" customHeight="1">
-      <c r="A35" s="370" t="s">
+      <c r="A35" s="303" t="s">
         <v>104</v>
       </c>
-      <c r="B35" s="370" t="s">
-        <v>95</v>
-      </c>
-      <c r="C35" s="371" t="s">
+      <c r="B35" s="303" t="s">
+        <v>95</v>
+      </c>
+      <c r="C35" s="304" t="s">
         <v>237</v>
       </c>
       <c r="D35" s="27">
@@ -18614,13 +18618,13 @@
       <c r="BT35" s="56"/>
     </row>
     <row r="36" spans="1:72" ht="15.75" customHeight="1">
-      <c r="A36" s="370" t="s">
+      <c r="A36" s="303" t="s">
         <v>106</v>
       </c>
-      <c r="B36" s="370" t="s">
-        <v>95</v>
-      </c>
-      <c r="C36" s="371" t="s">
+      <c r="B36" s="303" t="s">
+        <v>95</v>
+      </c>
+      <c r="C36" s="304" t="s">
         <v>107</v>
       </c>
       <c r="D36" s="27">
@@ -18797,13 +18801,13 @@
       <c r="BT36" s="56"/>
     </row>
     <row r="37" spans="1:72" ht="15.75" customHeight="1">
-      <c r="A37" s="370" t="s">
+      <c r="A37" s="303" t="s">
         <v>108</v>
       </c>
-      <c r="B37" s="370" t="s">
-        <v>95</v>
-      </c>
-      <c r="C37" s="371" t="s">
+      <c r="B37" s="303" t="s">
+        <v>95</v>
+      </c>
+      <c r="C37" s="304" t="s">
         <v>109</v>
       </c>
       <c r="D37" s="27">
@@ -18980,13 +18984,13 @@
       <c r="BT37" s="56"/>
     </row>
     <row r="38" spans="1:72" ht="15.75" customHeight="1">
-      <c r="A38" s="370" t="s">
+      <c r="A38" s="303" t="s">
         <v>110</v>
       </c>
-      <c r="B38" s="370" t="s">
-        <v>95</v>
-      </c>
-      <c r="C38" s="371" t="s">
+      <c r="B38" s="303" t="s">
+        <v>95</v>
+      </c>
+      <c r="C38" s="304" t="s">
         <v>111</v>
       </c>
       <c r="D38" s="27">
@@ -19163,13 +19167,13 @@
       <c r="BT38" s="56"/>
     </row>
     <row r="39" spans="1:72" ht="15.75" customHeight="1">
-      <c r="A39" s="370" t="s">
+      <c r="A39" s="303" t="s">
         <v>112</v>
       </c>
-      <c r="B39" s="370" t="s">
-        <v>95</v>
-      </c>
-      <c r="C39" s="371" t="s">
+      <c r="B39" s="303" t="s">
+        <v>95</v>
+      </c>
+      <c r="C39" s="304" t="s">
         <v>113</v>
       </c>
       <c r="D39" s="27">
@@ -19346,13 +19350,13 @@
       <c r="BT39" s="56"/>
     </row>
     <row r="40" spans="1:72" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A40" s="372" t="s">
+      <c r="A40" s="305" t="s">
         <v>114</v>
       </c>
-      <c r="B40" s="372" t="s">
-        <v>95</v>
-      </c>
-      <c r="C40" s="373" t="s">
+      <c r="B40" s="305" t="s">
+        <v>95</v>
+      </c>
+      <c r="C40" s="306" t="s">
         <v>115</v>
       </c>
       <c r="D40" s="110">
@@ -20129,113 +20133,113 @@
       <c r="BQ44" s="30"/>
     </row>
     <row r="45" spans="1:72" ht="15.75" customHeight="1">
-      <c r="A45" s="337" t="s">
+      <c r="A45" s="270" t="s">
         <v>126</v>
       </c>
-      <c r="B45" s="337" t="s">
-        <v>29</v>
-      </c>
-      <c r="C45" s="338" t="s">
+      <c r="B45" s="270" t="s">
+        <v>29</v>
+      </c>
+      <c r="C45" s="271" t="s">
         <v>127</v>
       </c>
-      <c r="D45" s="339" t="s">
+      <c r="D45" s="272" t="s">
         <v>245</v>
       </c>
-      <c r="E45" s="339" t="s">
+      <c r="E45" s="272" t="s">
         <v>245</v>
       </c>
-      <c r="F45" s="339" t="s">
+      <c r="F45" s="272" t="s">
         <v>245</v>
       </c>
-      <c r="G45" s="339" t="s">
+      <c r="G45" s="272" t="s">
         <v>245</v>
       </c>
-      <c r="H45" s="339" t="s">
+      <c r="H45" s="272" t="s">
         <v>245</v>
       </c>
-      <c r="I45" s="339" t="s">
+      <c r="I45" s="272" t="s">
         <v>245</v>
       </c>
-      <c r="J45" s="339" t="s">
+      <c r="J45" s="272" t="s">
         <v>245</v>
       </c>
-      <c r="K45" s="339" t="s">
+      <c r="K45" s="272" t="s">
         <v>245</v>
       </c>
-      <c r="L45" s="339" t="s">
+      <c r="L45" s="272" t="s">
         <v>245</v>
       </c>
-      <c r="M45" s="339" t="s">
+      <c r="M45" s="272" t="s">
         <v>245</v>
       </c>
-      <c r="N45" s="339" t="s">
+      <c r="N45" s="272" t="s">
         <v>245</v>
       </c>
-      <c r="O45" s="339" t="s">
+      <c r="O45" s="272" t="s">
         <v>245</v>
       </c>
-      <c r="P45" s="345" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q45" s="345" t="s">
-        <v>95</v>
-      </c>
-      <c r="R45" s="345" t="s">
-        <v>95</v>
-      </c>
-      <c r="S45" s="345" t="s">
-        <v>95</v>
-      </c>
-      <c r="T45" s="345" t="s">
-        <v>95</v>
-      </c>
-      <c r="U45" s="346">
-        <v>0</v>
-      </c>
-      <c r="V45" s="346">
-        <v>0</v>
-      </c>
-      <c r="W45" s="346">
-        <v>1</v>
-      </c>
-      <c r="X45" s="342" t="s">
-        <v>95</v>
-      </c>
-      <c r="Y45" s="342" t="s">
-        <v>95</v>
-      </c>
-      <c r="Z45" s="342" t="s">
-        <v>95</v>
-      </c>
-      <c r="AA45" s="342" t="s">
-        <v>95</v>
-      </c>
-      <c r="AB45" s="342" t="s">
-        <v>95</v>
-      </c>
-      <c r="AC45" s="343">
-        <v>1</v>
-      </c>
-      <c r="AD45" s="343">
-        <v>1</v>
-      </c>
-      <c r="AE45" s="343">
-        <v>1</v>
-      </c>
-      <c r="AF45" s="343">
-        <v>0</v>
-      </c>
-      <c r="AG45" s="343">
-        <v>0</v>
-      </c>
-      <c r="AH45" s="343">
-        <v>1</v>
-      </c>
-      <c r="AI45" s="344">
-        <v>1</v>
-      </c>
-      <c r="AJ45" s="355"/>
-      <c r="AK45" s="356"/>
+      <c r="P45" s="278" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q45" s="278" t="s">
+        <v>95</v>
+      </c>
+      <c r="R45" s="278" t="s">
+        <v>95</v>
+      </c>
+      <c r="S45" s="278" t="s">
+        <v>95</v>
+      </c>
+      <c r="T45" s="278" t="s">
+        <v>95</v>
+      </c>
+      <c r="U45" s="279">
+        <v>0</v>
+      </c>
+      <c r="V45" s="279">
+        <v>0</v>
+      </c>
+      <c r="W45" s="279">
+        <v>1</v>
+      </c>
+      <c r="X45" s="275" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y45" s="275" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z45" s="275" t="s">
+        <v>95</v>
+      </c>
+      <c r="AA45" s="275" t="s">
+        <v>95</v>
+      </c>
+      <c r="AB45" s="275" t="s">
+        <v>95</v>
+      </c>
+      <c r="AC45" s="276">
+        <v>1</v>
+      </c>
+      <c r="AD45" s="276">
+        <v>1</v>
+      </c>
+      <c r="AE45" s="276">
+        <v>1</v>
+      </c>
+      <c r="AF45" s="276">
+        <v>0</v>
+      </c>
+      <c r="AG45" s="276">
+        <v>0</v>
+      </c>
+      <c r="AH45" s="276">
+        <v>1</v>
+      </c>
+      <c r="AI45" s="277">
+        <v>1</v>
+      </c>
+      <c r="AJ45" s="288"/>
+      <c r="AK45" s="289"/>
       <c r="AL45" s="98"/>
       <c r="AM45" s="30"/>
       <c r="AN45" s="30"/>
@@ -20279,113 +20283,113 @@
       <c r="BQ45" s="30"/>
     </row>
     <row r="46" spans="1:72" ht="15.75" customHeight="1">
-      <c r="A46" s="337" t="s">
+      <c r="A46" s="270" t="s">
         <v>129</v>
       </c>
-      <c r="B46" s="337" t="s">
-        <v>29</v>
-      </c>
-      <c r="C46" s="338" t="s">
+      <c r="B46" s="270" t="s">
+        <v>29</v>
+      </c>
+      <c r="C46" s="271" t="s">
         <v>130</v>
       </c>
-      <c r="D46" s="339" t="s">
+      <c r="D46" s="272" t="s">
         <v>245</v>
       </c>
-      <c r="E46" s="339" t="s">
+      <c r="E46" s="272" t="s">
         <v>245</v>
       </c>
-      <c r="F46" s="339" t="s">
+      <c r="F46" s="272" t="s">
         <v>245</v>
       </c>
-      <c r="G46" s="339" t="s">
+      <c r="G46" s="272" t="s">
         <v>245</v>
       </c>
-      <c r="H46" s="339" t="s">
+      <c r="H46" s="272" t="s">
         <v>245</v>
       </c>
-      <c r="I46" s="339" t="s">
+      <c r="I46" s="272" t="s">
         <v>245</v>
       </c>
-      <c r="J46" s="339" t="s">
+      <c r="J46" s="272" t="s">
         <v>245</v>
       </c>
-      <c r="K46" s="339" t="s">
+      <c r="K46" s="272" t="s">
         <v>245</v>
       </c>
-      <c r="L46" s="339" t="s">
+      <c r="L46" s="272" t="s">
         <v>245</v>
       </c>
-      <c r="M46" s="339" t="s">
+      <c r="M46" s="272" t="s">
         <v>245</v>
       </c>
-      <c r="N46" s="339" t="s">
+      <c r="N46" s="272" t="s">
         <v>245</v>
       </c>
-      <c r="O46" s="339" t="s">
+      <c r="O46" s="272" t="s">
         <v>245</v>
       </c>
-      <c r="P46" s="345" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q46" s="345" t="s">
-        <v>95</v>
-      </c>
-      <c r="R46" s="345" t="s">
-        <v>95</v>
-      </c>
-      <c r="S46" s="345" t="s">
-        <v>95</v>
-      </c>
-      <c r="T46" s="345" t="s">
-        <v>95</v>
-      </c>
-      <c r="U46" s="346">
-        <v>0</v>
-      </c>
-      <c r="V46" s="346">
-        <v>1</v>
-      </c>
-      <c r="W46" s="346">
-        <v>0</v>
-      </c>
-      <c r="X46" s="342" t="s">
-        <v>95</v>
-      </c>
-      <c r="Y46" s="342" t="s">
-        <v>95</v>
-      </c>
-      <c r="Z46" s="342" t="s">
-        <v>95</v>
-      </c>
-      <c r="AA46" s="342" t="s">
-        <v>95</v>
-      </c>
-      <c r="AB46" s="342" t="s">
-        <v>95</v>
-      </c>
-      <c r="AC46" s="343">
-        <v>1</v>
-      </c>
-      <c r="AD46" s="343">
-        <v>1</v>
-      </c>
-      <c r="AE46" s="343">
-        <v>1</v>
-      </c>
-      <c r="AF46" s="343">
-        <v>0</v>
-      </c>
-      <c r="AG46" s="343">
-        <v>0</v>
-      </c>
-      <c r="AH46" s="343">
-        <v>1</v>
-      </c>
-      <c r="AI46" s="344">
-        <v>1</v>
-      </c>
-      <c r="AJ46" s="355"/>
-      <c r="AK46" s="356"/>
+      <c r="P46" s="278" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q46" s="278" t="s">
+        <v>95</v>
+      </c>
+      <c r="R46" s="278" t="s">
+        <v>95</v>
+      </c>
+      <c r="S46" s="278" t="s">
+        <v>95</v>
+      </c>
+      <c r="T46" s="278" t="s">
+        <v>95</v>
+      </c>
+      <c r="U46" s="279">
+        <v>0</v>
+      </c>
+      <c r="V46" s="279">
+        <v>1</v>
+      </c>
+      <c r="W46" s="279">
+        <v>0</v>
+      </c>
+      <c r="X46" s="275" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y46" s="275" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z46" s="275" t="s">
+        <v>95</v>
+      </c>
+      <c r="AA46" s="275" t="s">
+        <v>95</v>
+      </c>
+      <c r="AB46" s="275" t="s">
+        <v>95</v>
+      </c>
+      <c r="AC46" s="276">
+        <v>1</v>
+      </c>
+      <c r="AD46" s="276">
+        <v>1</v>
+      </c>
+      <c r="AE46" s="276">
+        <v>1</v>
+      </c>
+      <c r="AF46" s="276">
+        <v>0</v>
+      </c>
+      <c r="AG46" s="276">
+        <v>0</v>
+      </c>
+      <c r="AH46" s="276">
+        <v>1</v>
+      </c>
+      <c r="AI46" s="277">
+        <v>1</v>
+      </c>
+      <c r="AJ46" s="288"/>
+      <c r="AK46" s="289"/>
       <c r="AL46" s="98"/>
       <c r="AM46" s="30"/>
       <c r="AN46" s="30"/>
@@ -20429,113 +20433,113 @@
       <c r="BQ46" s="30"/>
     </row>
     <row r="47" spans="1:72" ht="15.75" customHeight="1">
-      <c r="A47" s="337" t="s">
+      <c r="A47" s="270" t="s">
         <v>131</v>
       </c>
-      <c r="B47" s="337" t="s">
-        <v>29</v>
-      </c>
-      <c r="C47" s="338" t="s">
+      <c r="B47" s="270" t="s">
+        <v>29</v>
+      </c>
+      <c r="C47" s="271" t="s">
         <v>132</v>
       </c>
-      <c r="D47" s="339" t="s">
+      <c r="D47" s="272" t="s">
         <v>245</v>
       </c>
-      <c r="E47" s="339" t="s">
+      <c r="E47" s="272" t="s">
         <v>245</v>
       </c>
-      <c r="F47" s="339" t="s">
+      <c r="F47" s="272" t="s">
         <v>245</v>
       </c>
-      <c r="G47" s="339" t="s">
+      <c r="G47" s="272" t="s">
         <v>245</v>
       </c>
-      <c r="H47" s="339" t="s">
+      <c r="H47" s="272" t="s">
         <v>245</v>
       </c>
-      <c r="I47" s="339" t="s">
+      <c r="I47" s="272" t="s">
         <v>245</v>
       </c>
-      <c r="J47" s="339" t="s">
+      <c r="J47" s="272" t="s">
         <v>245</v>
       </c>
-      <c r="K47" s="339" t="s">
+      <c r="K47" s="272" t="s">
         <v>245</v>
       </c>
-      <c r="L47" s="339" t="s">
+      <c r="L47" s="272" t="s">
         <v>245</v>
       </c>
-      <c r="M47" s="339" t="s">
+      <c r="M47" s="272" t="s">
         <v>245</v>
       </c>
-      <c r="N47" s="339" t="s">
+      <c r="N47" s="272" t="s">
         <v>245</v>
       </c>
-      <c r="O47" s="339" t="s">
+      <c r="O47" s="272" t="s">
         <v>245</v>
       </c>
-      <c r="P47" s="345" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q47" s="345" t="s">
-        <v>95</v>
-      </c>
-      <c r="R47" s="345" t="s">
-        <v>95</v>
-      </c>
-      <c r="S47" s="345" t="s">
-        <v>95</v>
-      </c>
-      <c r="T47" s="345" t="s">
-        <v>95</v>
-      </c>
-      <c r="U47" s="346">
-        <v>0</v>
-      </c>
-      <c r="V47" s="346">
-        <v>1</v>
-      </c>
-      <c r="W47" s="346">
-        <v>1</v>
-      </c>
-      <c r="X47" s="342" t="s">
-        <v>95</v>
-      </c>
-      <c r="Y47" s="342" t="s">
-        <v>95</v>
-      </c>
-      <c r="Z47" s="342" t="s">
-        <v>95</v>
-      </c>
-      <c r="AA47" s="342" t="s">
-        <v>95</v>
-      </c>
-      <c r="AB47" s="342" t="s">
-        <v>95</v>
-      </c>
-      <c r="AC47" s="343">
-        <v>1</v>
-      </c>
-      <c r="AD47" s="343">
-        <v>1</v>
-      </c>
-      <c r="AE47" s="343">
-        <v>1</v>
-      </c>
-      <c r="AF47" s="343">
-        <v>0</v>
-      </c>
-      <c r="AG47" s="343">
-        <v>0</v>
-      </c>
-      <c r="AH47" s="343">
-        <v>1</v>
-      </c>
-      <c r="AI47" s="344">
-        <v>1</v>
-      </c>
-      <c r="AJ47" s="355"/>
-      <c r="AK47" s="356"/>
+      <c r="P47" s="278" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q47" s="278" t="s">
+        <v>95</v>
+      </c>
+      <c r="R47" s="278" t="s">
+        <v>95</v>
+      </c>
+      <c r="S47" s="278" t="s">
+        <v>95</v>
+      </c>
+      <c r="T47" s="278" t="s">
+        <v>95</v>
+      </c>
+      <c r="U47" s="279">
+        <v>0</v>
+      </c>
+      <c r="V47" s="279">
+        <v>1</v>
+      </c>
+      <c r="W47" s="279">
+        <v>1</v>
+      </c>
+      <c r="X47" s="275" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y47" s="275" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z47" s="275" t="s">
+        <v>95</v>
+      </c>
+      <c r="AA47" s="275" t="s">
+        <v>95</v>
+      </c>
+      <c r="AB47" s="275" t="s">
+        <v>95</v>
+      </c>
+      <c r="AC47" s="276">
+        <v>1</v>
+      </c>
+      <c r="AD47" s="276">
+        <v>1</v>
+      </c>
+      <c r="AE47" s="276">
+        <v>1</v>
+      </c>
+      <c r="AF47" s="276">
+        <v>0</v>
+      </c>
+      <c r="AG47" s="276">
+        <v>0</v>
+      </c>
+      <c r="AH47" s="276">
+        <v>1</v>
+      </c>
+      <c r="AI47" s="277">
+        <v>1</v>
+      </c>
+      <c r="AJ47" s="288"/>
+      <c r="AK47" s="289"/>
       <c r="AL47" s="98"/>
       <c r="AM47" s="30"/>
       <c r="AN47" s="30"/>
@@ -20579,113 +20583,113 @@
       <c r="BQ47" s="30"/>
     </row>
     <row r="48" spans="1:72" ht="15.75" customHeight="1">
-      <c r="A48" s="337" t="s">
+      <c r="A48" s="270" t="s">
         <v>133</v>
       </c>
-      <c r="B48" s="337" t="s">
-        <v>29</v>
-      </c>
-      <c r="C48" s="338" t="s">
+      <c r="B48" s="270" t="s">
+        <v>29</v>
+      </c>
+      <c r="C48" s="271" t="s">
         <v>134</v>
       </c>
-      <c r="D48" s="339" t="s">
+      <c r="D48" s="272" t="s">
         <v>245</v>
       </c>
-      <c r="E48" s="339" t="s">
+      <c r="E48" s="272" t="s">
         <v>245</v>
       </c>
-      <c r="F48" s="339" t="s">
+      <c r="F48" s="272" t="s">
         <v>245</v>
       </c>
-      <c r="G48" s="339" t="s">
+      <c r="G48" s="272" t="s">
         <v>245</v>
       </c>
-      <c r="H48" s="339" t="s">
+      <c r="H48" s="272" t="s">
         <v>245</v>
       </c>
-      <c r="I48" s="339" t="s">
+      <c r="I48" s="272" t="s">
         <v>245</v>
       </c>
-      <c r="J48" s="339" t="s">
+      <c r="J48" s="272" t="s">
         <v>245</v>
       </c>
-      <c r="K48" s="339" t="s">
+      <c r="K48" s="272" t="s">
         <v>245</v>
       </c>
-      <c r="L48" s="339" t="s">
+      <c r="L48" s="272" t="s">
         <v>245</v>
       </c>
-      <c r="M48" s="339" t="s">
+      <c r="M48" s="272" t="s">
         <v>245</v>
       </c>
-      <c r="N48" s="339" t="s">
+      <c r="N48" s="272" t="s">
         <v>245</v>
       </c>
-      <c r="O48" s="339" t="s">
+      <c r="O48" s="272" t="s">
         <v>245</v>
       </c>
-      <c r="P48" s="345" t="s">
+      <c r="P48" s="278" t="s">
         <v>246</v>
       </c>
-      <c r="Q48" s="345" t="s">
+      <c r="Q48" s="278" t="s">
         <v>246</v>
       </c>
-      <c r="R48" s="345" t="s">
+      <c r="R48" s="278" t="s">
         <v>246</v>
       </c>
-      <c r="S48" s="345" t="s">
+      <c r="S48" s="278" t="s">
         <v>246</v>
       </c>
-      <c r="T48" s="345" t="s">
+      <c r="T48" s="278" t="s">
         <v>246</v>
       </c>
-      <c r="U48" s="346">
-        <v>1</v>
-      </c>
-      <c r="V48" s="346">
-        <v>0</v>
-      </c>
-      <c r="W48" s="346">
-        <v>1</v>
-      </c>
-      <c r="X48" s="342" t="s">
-        <v>95</v>
-      </c>
-      <c r="Y48" s="342" t="s">
-        <v>95</v>
-      </c>
-      <c r="Z48" s="342" t="s">
-        <v>95</v>
-      </c>
-      <c r="AA48" s="342" t="s">
-        <v>95</v>
-      </c>
-      <c r="AB48" s="342" t="s">
-        <v>95</v>
-      </c>
-      <c r="AC48" s="343">
-        <v>1</v>
-      </c>
-      <c r="AD48" s="343">
-        <v>1</v>
-      </c>
-      <c r="AE48" s="343">
-        <v>1</v>
-      </c>
-      <c r="AF48" s="343">
-        <v>0</v>
-      </c>
-      <c r="AG48" s="343">
-        <v>0</v>
-      </c>
-      <c r="AH48" s="343">
-        <v>1</v>
-      </c>
-      <c r="AI48" s="344">
-        <v>1</v>
-      </c>
-      <c r="AJ48" s="355"/>
-      <c r="AK48" s="356"/>
+      <c r="U48" s="279">
+        <v>1</v>
+      </c>
+      <c r="V48" s="279">
+        <v>0</v>
+      </c>
+      <c r="W48" s="279">
+        <v>1</v>
+      </c>
+      <c r="X48" s="275" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y48" s="275" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z48" s="275" t="s">
+        <v>95</v>
+      </c>
+      <c r="AA48" s="275" t="s">
+        <v>95</v>
+      </c>
+      <c r="AB48" s="275" t="s">
+        <v>95</v>
+      </c>
+      <c r="AC48" s="276">
+        <v>1</v>
+      </c>
+      <c r="AD48" s="276">
+        <v>1</v>
+      </c>
+      <c r="AE48" s="276">
+        <v>1</v>
+      </c>
+      <c r="AF48" s="276">
+        <v>0</v>
+      </c>
+      <c r="AG48" s="276">
+        <v>0</v>
+      </c>
+      <c r="AH48" s="276">
+        <v>1</v>
+      </c>
+      <c r="AI48" s="277">
+        <v>1</v>
+      </c>
+      <c r="AJ48" s="288"/>
+      <c r="AK48" s="289"/>
       <c r="AL48" s="98"/>
       <c r="AM48" s="30"/>
       <c r="AN48" s="30"/>
@@ -20729,113 +20733,113 @@
       <c r="BQ48" s="30"/>
     </row>
     <row r="49" spans="1:69" ht="15.75" customHeight="1">
-      <c r="A49" s="337" t="s">
+      <c r="A49" s="270" t="s">
         <v>135</v>
       </c>
-      <c r="B49" s="337" t="s">
-        <v>29</v>
-      </c>
-      <c r="C49" s="338" t="s">
+      <c r="B49" s="270" t="s">
+        <v>29</v>
+      </c>
+      <c r="C49" s="271" t="s">
         <v>136</v>
       </c>
-      <c r="D49" s="339" t="s">
+      <c r="D49" s="272" t="s">
         <v>245</v>
       </c>
-      <c r="E49" s="339" t="s">
+      <c r="E49" s="272" t="s">
         <v>245</v>
       </c>
-      <c r="F49" s="339" t="s">
+      <c r="F49" s="272" t="s">
         <v>245</v>
       </c>
-      <c r="G49" s="339" t="s">
+      <c r="G49" s="272" t="s">
         <v>245</v>
       </c>
-      <c r="H49" s="339" t="s">
+      <c r="H49" s="272" t="s">
         <v>245</v>
       </c>
-      <c r="I49" s="339" t="s">
+      <c r="I49" s="272" t="s">
         <v>245</v>
       </c>
-      <c r="J49" s="339" t="s">
+      <c r="J49" s="272" t="s">
         <v>245</v>
       </c>
-      <c r="K49" s="339" t="s">
+      <c r="K49" s="272" t="s">
         <v>245</v>
       </c>
-      <c r="L49" s="339" t="s">
+      <c r="L49" s="272" t="s">
         <v>245</v>
       </c>
-      <c r="M49" s="339" t="s">
+      <c r="M49" s="272" t="s">
         <v>245</v>
       </c>
-      <c r="N49" s="339" t="s">
+      <c r="N49" s="272" t="s">
         <v>245</v>
       </c>
-      <c r="O49" s="339" t="s">
+      <c r="O49" s="272" t="s">
         <v>245</v>
       </c>
-      <c r="P49" s="345" t="s">
+      <c r="P49" s="278" t="s">
         <v>246</v>
       </c>
-      <c r="Q49" s="345" t="s">
+      <c r="Q49" s="278" t="s">
         <v>246</v>
       </c>
-      <c r="R49" s="345" t="s">
+      <c r="R49" s="278" t="s">
         <v>246</v>
       </c>
-      <c r="S49" s="345" t="s">
+      <c r="S49" s="278" t="s">
         <v>246</v>
       </c>
-      <c r="T49" s="345" t="s">
+      <c r="T49" s="278" t="s">
         <v>246</v>
       </c>
-      <c r="U49" s="346">
-        <v>1</v>
-      </c>
-      <c r="V49" s="346">
-        <v>1</v>
-      </c>
-      <c r="W49" s="346">
-        <v>0</v>
-      </c>
-      <c r="X49" s="342" t="s">
-        <v>95</v>
-      </c>
-      <c r="Y49" s="342" t="s">
-        <v>95</v>
-      </c>
-      <c r="Z49" s="342" t="s">
-        <v>95</v>
-      </c>
-      <c r="AA49" s="342" t="s">
-        <v>95</v>
-      </c>
-      <c r="AB49" s="342" t="s">
-        <v>95</v>
-      </c>
-      <c r="AC49" s="343">
-        <v>1</v>
-      </c>
-      <c r="AD49" s="343">
-        <v>1</v>
-      </c>
-      <c r="AE49" s="343">
-        <v>1</v>
-      </c>
-      <c r="AF49" s="343">
-        <v>0</v>
-      </c>
-      <c r="AG49" s="343">
-        <v>0</v>
-      </c>
-      <c r="AH49" s="343">
-        <v>1</v>
-      </c>
-      <c r="AI49" s="344">
-        <v>1</v>
-      </c>
-      <c r="AJ49" s="355"/>
-      <c r="AK49" s="356"/>
+      <c r="U49" s="279">
+        <v>1</v>
+      </c>
+      <c r="V49" s="279">
+        <v>1</v>
+      </c>
+      <c r="W49" s="279">
+        <v>0</v>
+      </c>
+      <c r="X49" s="275" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y49" s="275" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z49" s="275" t="s">
+        <v>95</v>
+      </c>
+      <c r="AA49" s="275" t="s">
+        <v>95</v>
+      </c>
+      <c r="AB49" s="275" t="s">
+        <v>95</v>
+      </c>
+      <c r="AC49" s="276">
+        <v>1</v>
+      </c>
+      <c r="AD49" s="276">
+        <v>1</v>
+      </c>
+      <c r="AE49" s="276">
+        <v>1</v>
+      </c>
+      <c r="AF49" s="276">
+        <v>0</v>
+      </c>
+      <c r="AG49" s="276">
+        <v>0</v>
+      </c>
+      <c r="AH49" s="276">
+        <v>1</v>
+      </c>
+      <c r="AI49" s="277">
+        <v>1</v>
+      </c>
+      <c r="AJ49" s="288"/>
+      <c r="AK49" s="289"/>
       <c r="AL49" s="98"/>
       <c r="AM49" s="30"/>
       <c r="AN49" s="30"/>
@@ -20879,113 +20883,113 @@
       <c r="BQ49" s="30"/>
     </row>
     <row r="50" spans="1:69" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A50" s="337" t="s">
+      <c r="A50" s="270" t="s">
         <v>137</v>
       </c>
-      <c r="B50" s="337" t="s">
-        <v>29</v>
-      </c>
-      <c r="C50" s="338" t="s">
+      <c r="B50" s="270" t="s">
+        <v>29</v>
+      </c>
+      <c r="C50" s="271" t="s">
         <v>138</v>
       </c>
-      <c r="D50" s="339" t="s">
+      <c r="D50" s="272" t="s">
         <v>245</v>
       </c>
-      <c r="E50" s="339" t="s">
+      <c r="E50" s="272" t="s">
         <v>245</v>
       </c>
-      <c r="F50" s="339" t="s">
+      <c r="F50" s="272" t="s">
         <v>245</v>
       </c>
-      <c r="G50" s="339" t="s">
+      <c r="G50" s="272" t="s">
         <v>245</v>
       </c>
-      <c r="H50" s="339" t="s">
+      <c r="H50" s="272" t="s">
         <v>245</v>
       </c>
-      <c r="I50" s="339" t="s">
+      <c r="I50" s="272" t="s">
         <v>245</v>
       </c>
-      <c r="J50" s="339" t="s">
+      <c r="J50" s="272" t="s">
         <v>245</v>
       </c>
-      <c r="K50" s="339" t="s">
+      <c r="K50" s="272" t="s">
         <v>245</v>
       </c>
-      <c r="L50" s="339" t="s">
+      <c r="L50" s="272" t="s">
         <v>245</v>
       </c>
-      <c r="M50" s="339" t="s">
+      <c r="M50" s="272" t="s">
         <v>245</v>
       </c>
-      <c r="N50" s="339" t="s">
+      <c r="N50" s="272" t="s">
         <v>245</v>
       </c>
-      <c r="O50" s="339" t="s">
+      <c r="O50" s="272" t="s">
         <v>245</v>
       </c>
-      <c r="P50" s="345" t="s">
+      <c r="P50" s="278" t="s">
         <v>246</v>
       </c>
-      <c r="Q50" s="345" t="s">
+      <c r="Q50" s="278" t="s">
         <v>246</v>
       </c>
-      <c r="R50" s="345" t="s">
+      <c r="R50" s="278" t="s">
         <v>246</v>
       </c>
-      <c r="S50" s="345" t="s">
+      <c r="S50" s="278" t="s">
         <v>246</v>
       </c>
-      <c r="T50" s="345" t="s">
+      <c r="T50" s="278" t="s">
         <v>246</v>
       </c>
-      <c r="U50" s="346">
-        <v>1</v>
-      </c>
-      <c r="V50" s="346">
-        <v>1</v>
-      </c>
-      <c r="W50" s="346">
-        <v>1</v>
-      </c>
-      <c r="X50" s="342" t="s">
-        <v>95</v>
-      </c>
-      <c r="Y50" s="342" t="s">
-        <v>95</v>
-      </c>
-      <c r="Z50" s="342" t="s">
-        <v>95</v>
-      </c>
-      <c r="AA50" s="342" t="s">
-        <v>95</v>
-      </c>
-      <c r="AB50" s="342" t="s">
-        <v>95</v>
-      </c>
-      <c r="AC50" s="343">
-        <v>1</v>
-      </c>
-      <c r="AD50" s="343">
-        <v>1</v>
-      </c>
-      <c r="AE50" s="343">
-        <v>1</v>
-      </c>
-      <c r="AF50" s="343">
-        <v>0</v>
-      </c>
-      <c r="AG50" s="343">
-        <v>0</v>
-      </c>
-      <c r="AH50" s="343">
-        <v>1</v>
-      </c>
-      <c r="AI50" s="344">
-        <v>1</v>
-      </c>
-      <c r="AJ50" s="355"/>
-      <c r="AK50" s="357"/>
+      <c r="U50" s="279">
+        <v>1</v>
+      </c>
+      <c r="V50" s="279">
+        <v>1</v>
+      </c>
+      <c r="W50" s="279">
+        <v>1</v>
+      </c>
+      <c r="X50" s="275" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y50" s="275" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z50" s="275" t="s">
+        <v>95</v>
+      </c>
+      <c r="AA50" s="275" t="s">
+        <v>95</v>
+      </c>
+      <c r="AB50" s="275" t="s">
+        <v>95</v>
+      </c>
+      <c r="AC50" s="276">
+        <v>1</v>
+      </c>
+      <c r="AD50" s="276">
+        <v>1</v>
+      </c>
+      <c r="AE50" s="276">
+        <v>1</v>
+      </c>
+      <c r="AF50" s="276">
+        <v>0</v>
+      </c>
+      <c r="AG50" s="276">
+        <v>0</v>
+      </c>
+      <c r="AH50" s="276">
+        <v>1</v>
+      </c>
+      <c r="AI50" s="277">
+        <v>1</v>
+      </c>
+      <c r="AJ50" s="288"/>
+      <c r="AK50" s="290"/>
       <c r="AL50" s="99"/>
       <c r="AM50" s="133"/>
       <c r="AN50" s="133"/>
@@ -21029,100 +21033,100 @@
       <c r="BQ50" s="30"/>
     </row>
     <row r="51" spans="1:69" ht="15.75" customHeight="1" thickBot="1">
-      <c r="AM51" s="285" t="s">
+      <c r="AM51" s="341" t="s">
         <v>247</v>
       </c>
-      <c r="AN51" s="285"/>
-      <c r="AO51" s="285"/>
+      <c r="AN51" s="341"/>
+      <c r="AO51" s="341"/>
       <c r="AP51" s="183" t="s">
         <v>248</v>
       </c>
       <c r="AQ51" s="183" t="s">
         <v>249</v>
       </c>
-      <c r="AR51" s="283" t="s">
+      <c r="AR51" s="327" t="s">
         <v>250</v>
       </c>
-      <c r="AS51" s="283" t="s">
+      <c r="AS51" s="327" t="s">
         <v>251</v>
       </c>
-      <c r="AT51" s="283" t="s">
+      <c r="AT51" s="327" t="s">
         <v>252</v>
       </c>
-      <c r="AU51" s="296" t="s">
+      <c r="AU51" s="331" t="s">
         <v>6</v>
       </c>
-      <c r="AV51" s="298"/>
-      <c r="AW51" s="296" t="s">
+      <c r="AV51" s="333"/>
+      <c r="AW51" s="331" t="s">
         <v>253</v>
       </c>
-      <c r="AX51" s="297"/>
-      <c r="AY51" s="298"/>
-      <c r="AZ51" s="304"/>
-      <c r="BA51" s="296"/>
-      <c r="BB51" s="298"/>
-      <c r="BC51" s="296" t="s">
+      <c r="AX51" s="332"/>
+      <c r="AY51" s="333"/>
+      <c r="AZ51" s="339"/>
+      <c r="BA51" s="331"/>
+      <c r="BB51" s="333"/>
+      <c r="BC51" s="331" t="s">
         <v>254</v>
       </c>
-      <c r="BD51" s="298"/>
-      <c r="BE51" s="283" t="s">
+      <c r="BD51" s="333"/>
+      <c r="BE51" s="327" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="52" spans="1:69" ht="15.75" customHeight="1" thickBot="1">
-      <c r="AM52" s="282" t="s">
+      <c r="AM52" s="340" t="s">
         <v>255</v>
       </c>
-      <c r="AN52" s="282"/>
-      <c r="AO52" s="282"/>
-      <c r="AP52" s="282"/>
-      <c r="AQ52" s="282"/>
-      <c r="AR52" s="284"/>
-      <c r="AS52" s="284"/>
-      <c r="AT52" s="284"/>
-      <c r="AU52" s="299"/>
-      <c r="AV52" s="301"/>
-      <c r="AW52" s="299" t="s">
+      <c r="AN52" s="340"/>
+      <c r="AO52" s="340"/>
+      <c r="AP52" s="340"/>
+      <c r="AQ52" s="340"/>
+      <c r="AR52" s="328"/>
+      <c r="AS52" s="328"/>
+      <c r="AT52" s="328"/>
+      <c r="AU52" s="334"/>
+      <c r="AV52" s="336"/>
+      <c r="AW52" s="334" t="s">
         <v>256</v>
       </c>
-      <c r="AX52" s="300"/>
-      <c r="AY52" s="301"/>
-      <c r="AZ52" s="304"/>
-      <c r="BA52" s="299"/>
-      <c r="BB52" s="301"/>
-      <c r="BC52" s="299"/>
-      <c r="BD52" s="301"/>
-      <c r="BE52" s="284"/>
+      <c r="AX52" s="335"/>
+      <c r="AY52" s="336"/>
+      <c r="AZ52" s="339"/>
+      <c r="BA52" s="334"/>
+      <c r="BB52" s="336"/>
+      <c r="BC52" s="334"/>
+      <c r="BD52" s="336"/>
+      <c r="BE52" s="328"/>
     </row>
     <row r="53" spans="1:69" ht="15.75" customHeight="1">
       <c r="AM53" s="144"/>
-      <c r="AN53" s="276"/>
-      <c r="AO53" s="276"/>
+      <c r="AN53" s="313"/>
+      <c r="AO53" s="313"/>
     </row>
     <row r="54" spans="1:69" ht="15.75" customHeight="1">
       <c r="AM54" s="144"/>
-      <c r="AN54" s="276"/>
-      <c r="AO54" s="276"/>
+      <c r="AN54" s="313"/>
+      <c r="AO54" s="313"/>
     </row>
     <row r="55" spans="1:69" ht="15.75" customHeight="1">
       <c r="AM55" s="144"/>
-      <c r="AN55" s="276"/>
-      <c r="AO55" s="276"/>
+      <c r="AN55" s="313"/>
+      <c r="AO55" s="313"/>
     </row>
     <row r="56" spans="1:69" ht="15.75" customHeight="1">
       <c r="AM56" s="144"/>
-      <c r="AN56" s="276"/>
-      <c r="AO56" s="276"/>
+      <c r="AN56" s="313"/>
+      <c r="AO56" s="313"/>
     </row>
     <row r="57" spans="1:69" ht="15.75" customHeight="1">
       <c r="AM57" s="144"/>
-      <c r="AN57" s="276"/>
-      <c r="AO57" s="276"/>
+      <c r="AN57" s="313"/>
+      <c r="AO57" s="313"/>
     </row>
     <row r="58" spans="1:69" ht="15.75" customHeight="1">
       <c r="AM58" s="144"/>
-      <c r="AN58" s="276"/>
-      <c r="AO58" s="276"/>
+      <c r="AN58" s="313"/>
+      <c r="AO58" s="313"/>
     </row>
     <row r="59" spans="1:69" ht="15.75" customHeight="1">
       <c r="AM59" s="56"/>
@@ -21196,6 +21200,15 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="AN56:AO56"/>
+    <mergeCell ref="AN57:AO57"/>
+    <mergeCell ref="AN58:AO58"/>
+    <mergeCell ref="AM52:AQ52"/>
+    <mergeCell ref="AR51:AR52"/>
+    <mergeCell ref="AN53:AO53"/>
+    <mergeCell ref="AN54:AO54"/>
+    <mergeCell ref="AN55:AO55"/>
+    <mergeCell ref="AM51:AO51"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="D1:AI1"/>
     <mergeCell ref="C1:C3"/>
@@ -21211,15 +21224,6 @@
     <mergeCell ref="AU51:AV52"/>
     <mergeCell ref="BC51:BD52"/>
     <mergeCell ref="BA51:BB52"/>
-    <mergeCell ref="AN56:AO56"/>
-    <mergeCell ref="AN57:AO57"/>
-    <mergeCell ref="AN58:AO58"/>
-    <mergeCell ref="AM52:AQ52"/>
-    <mergeCell ref="AR51:AR52"/>
-    <mergeCell ref="AN53:AO53"/>
-    <mergeCell ref="AN54:AO54"/>
-    <mergeCell ref="AN55:AO55"/>
-    <mergeCell ref="AM51:AO51"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B50" xr:uid="{86B0FD97-DF9D-46FA-A74B-C1CEC80F29AE}">
@@ -21249,12 +21253,12 @@
   <sheetData>
     <row r="3" spans="5:14" ht="15" thickBot="1"/>
     <row r="4" spans="5:14" ht="23.25" customHeight="1" thickBot="1">
-      <c r="E4" s="305" t="s">
+      <c r="E4" s="342" t="s">
         <v>257</v>
       </c>
-      <c r="F4" s="305"/>
-      <c r="G4" s="305"/>
-      <c r="H4" s="306" t="s">
+      <c r="F4" s="342"/>
+      <c r="G4" s="342"/>
+      <c r="H4" s="343" t="s">
         <v>258</v>
       </c>
       <c r="K4" s="147" t="s">
@@ -21278,7 +21282,7 @@
       <c r="G5" s="147">
         <v>0</v>
       </c>
-      <c r="H5" s="307"/>
+      <c r="H5" s="344"/>
       <c r="K5" s="145">
         <v>1</v>
       </c>
@@ -21662,14 +21666,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:21" ht="15.6">
-      <c r="C2" s="314" t="s">
+      <c r="C2" s="351" t="s">
         <v>278</v>
       </c>
-      <c r="D2" s="314"/>
-      <c r="E2" s="314"/>
-      <c r="F2" s="314"/>
-      <c r="G2" s="314"/>
-      <c r="H2" s="314"/>
+      <c r="D2" s="351"/>
+      <c r="E2" s="351"/>
+      <c r="F2" s="351"/>
+      <c r="G2" s="351"/>
+      <c r="H2" s="351"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -21684,31 +21688,31 @@
       <c r="H3" s="50"/>
     </row>
     <row r="4" spans="3:21" ht="15.6" customHeight="1">
-      <c r="C4" s="315" t="s">
+      <c r="C4" s="352" t="s">
         <v>279</v>
       </c>
-      <c r="D4" s="315"/>
-      <c r="E4" s="315"/>
-      <c r="F4" s="315"/>
-      <c r="G4" s="315"/>
-      <c r="H4" s="313" t="s">
+      <c r="D4" s="352"/>
+      <c r="E4" s="352"/>
+      <c r="F4" s="352"/>
+      <c r="G4" s="352"/>
+      <c r="H4" s="350" t="s">
         <v>280</v>
       </c>
-      <c r="I4" s="312" t="s">
+      <c r="I4" s="349" t="s">
         <v>281</v>
       </c>
-      <c r="J4" s="312"/>
-      <c r="K4" s="312"/>
-      <c r="L4" s="312"/>
-      <c r="M4" s="311" t="s">
+      <c r="J4" s="349"/>
+      <c r="K4" s="349"/>
+      <c r="L4" s="349"/>
+      <c r="M4" s="348" t="s">
         <v>282</v>
       </c>
-      <c r="N4" s="311"/>
-      <c r="O4" s="311"/>
-      <c r="P4" s="311"/>
-      <c r="Q4" s="311"/>
-      <c r="R4" s="311"/>
-      <c r="S4" s="311"/>
+      <c r="N4" s="348"/>
+      <c r="O4" s="348"/>
+      <c r="P4" s="348"/>
+      <c r="Q4" s="348"/>
+      <c r="R4" s="348"/>
+      <c r="S4" s="348"/>
     </row>
     <row r="5" spans="3:21">
       <c r="C5" s="30">
@@ -21726,7 +21730,7 @@
       <c r="G5" s="30">
         <v>0</v>
       </c>
-      <c r="H5" s="313"/>
+      <c r="H5" s="350"/>
       <c r="I5" s="208">
         <v>30</v>
       </c>
@@ -22809,35 +22813,35 @@
       <c r="H28" s="50"/>
     </row>
     <row r="29" spans="3:21" ht="15.6">
-      <c r="D29" s="316"/>
-      <c r="E29" s="316"/>
-      <c r="F29" s="316"/>
-      <c r="G29" s="316"/>
-      <c r="H29" s="313" t="s">
+      <c r="D29" s="353"/>
+      <c r="E29" s="353"/>
+      <c r="F29" s="353"/>
+      <c r="G29" s="353"/>
+      <c r="H29" s="350" t="s">
         <v>280</v>
       </c>
-      <c r="I29" s="308" t="s">
+      <c r="I29" s="345" t="s">
         <v>281</v>
       </c>
-      <c r="J29" s="309"/>
-      <c r="K29" s="309"/>
-      <c r="L29" s="310"/>
-      <c r="M29" s="308" t="s">
+      <c r="J29" s="346"/>
+      <c r="K29" s="346"/>
+      <c r="L29" s="347"/>
+      <c r="M29" s="345" t="s">
         <v>282</v>
       </c>
-      <c r="N29" s="309"/>
-      <c r="O29" s="309"/>
-      <c r="P29" s="309"/>
-      <c r="Q29" s="309"/>
-      <c r="R29" s="309"/>
-      <c r="S29" s="310"/>
+      <c r="N29" s="346"/>
+      <c r="O29" s="346"/>
+      <c r="P29" s="346"/>
+      <c r="Q29" s="346"/>
+      <c r="R29" s="346"/>
+      <c r="S29" s="347"/>
     </row>
     <row r="30" spans="3:21">
       <c r="D30" s="56"/>
       <c r="E30" s="56"/>
       <c r="F30" s="56"/>
       <c r="G30" s="56"/>
-      <c r="H30" s="313"/>
+      <c r="H30" s="350"/>
       <c r="I30" s="57">
         <v>30</v>
       </c>
@@ -23874,36 +23878,36 @@
   <sheetData>
     <row r="1" spans="2:21" ht="15" thickBot="1"/>
     <row r="2" spans="2:21">
-      <c r="B2" s="322" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="324" t="s">
+      <c r="B2" s="359" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="361" t="s">
         <v>326</v>
       </c>
-      <c r="D2" s="320" t="s">
+      <c r="D2" s="357" t="s">
         <v>281</v>
       </c>
-      <c r="E2" s="320"/>
-      <c r="F2" s="320"/>
-      <c r="G2" s="320"/>
-      <c r="H2" s="321" t="s">
+      <c r="E2" s="357"/>
+      <c r="F2" s="357"/>
+      <c r="G2" s="357"/>
+      <c r="H2" s="358" t="s">
         <v>282</v>
       </c>
-      <c r="I2" s="321"/>
-      <c r="J2" s="321"/>
-      <c r="K2" s="321"/>
-      <c r="L2" s="321"/>
-      <c r="M2" s="321"/>
-      <c r="N2" s="321"/>
-      <c r="O2" s="318"/>
-      <c r="P2" s="318"/>
-      <c r="Q2" s="318"/>
-      <c r="R2" s="318"/>
-      <c r="S2" s="319"/>
+      <c r="I2" s="358"/>
+      <c r="J2" s="358"/>
+      <c r="K2" s="358"/>
+      <c r="L2" s="358"/>
+      <c r="M2" s="358"/>
+      <c r="N2" s="358"/>
+      <c r="O2" s="355"/>
+      <c r="P2" s="355"/>
+      <c r="Q2" s="355"/>
+      <c r="R2" s="355"/>
+      <c r="S2" s="356"/>
     </row>
     <row r="3" spans="2:21" ht="22.2" customHeight="1" thickBot="1">
-      <c r="B3" s="323"/>
-      <c r="C3" s="325"/>
+      <c r="B3" s="360"/>
+      <c r="C3" s="362"/>
       <c r="D3" s="60">
         <v>30</v>
       </c>
@@ -24132,7 +24136,7 @@
       <c r="S6" s="71">
         <v>0</v>
       </c>
-      <c r="T6" s="317" t="s">
+      <c r="T6" s="354" t="s">
         <v>331</v>
       </c>
     </row>
@@ -24191,7 +24195,7 @@
       <c r="S7" s="71">
         <v>1</v>
       </c>
-      <c r="T7" s="317"/>
+      <c r="T7" s="354"/>
     </row>
     <row r="8" spans="2:21">
       <c r="B8" s="70" t="s">
@@ -24248,7 +24252,7 @@
       <c r="S8" s="71">
         <v>1</v>
       </c>
-      <c r="T8" s="317"/>
+      <c r="T8" s="354"/>
     </row>
     <row r="9" spans="2:21">
       <c r="B9" s="70" t="s">
@@ -24305,7 +24309,7 @@
       <c r="S9" s="71">
         <v>0</v>
       </c>
-      <c r="T9" s="317"/>
+      <c r="T9" s="354"/>
     </row>
     <row r="10" spans="2:21">
       <c r="B10" s="70" t="s">
@@ -24362,7 +24366,7 @@
       <c r="S10" s="71">
         <v>1</v>
       </c>
-      <c r="T10" s="317"/>
+      <c r="T10" s="354"/>
     </row>
     <row r="11" spans="2:21">
       <c r="B11" s="70" t="s">
@@ -24419,7 +24423,7 @@
       <c r="S11" s="71">
         <v>0</v>
       </c>
-      <c r="T11" s="317"/>
+      <c r="T11" s="354"/>
     </row>
     <row r="12" spans="2:21">
       <c r="B12" s="201" t="s">
@@ -27750,7 +27754,7 @@
       </c>
     </row>
     <row r="4" spans="2:4">
-      <c r="B4" s="326" t="s">
+      <c r="B4" s="363" t="s">
         <v>336</v>
       </c>
       <c r="C4" s="30">
@@ -27761,7 +27765,7 @@
       </c>
     </row>
     <row r="5" spans="2:4">
-      <c r="B5" s="327"/>
+      <c r="B5" s="364"/>
       <c r="C5" s="30">
         <v>0</v>
       </c>
@@ -27770,7 +27774,7 @@
       </c>
     </row>
     <row r="6" spans="2:4">
-      <c r="B6" s="326" t="s">
+      <c r="B6" s="363" t="s">
         <v>337</v>
       </c>
       <c r="C6" s="30">
@@ -27781,7 +27785,7 @@
       </c>
     </row>
     <row r="7" spans="2:4">
-      <c r="B7" s="327"/>
+      <c r="B7" s="364"/>
       <c r="C7" s="30">
         <v>0</v>
       </c>
